--- a/KickR.xlsx
+++ b/KickR.xlsx
@@ -68,7 +68,7 @@
     <t>Simulated Mass:</t>
   </si>
   <si>
-    <t>-0.44</t>
+    <t>5.0</t>
   </si>
   <si>
     <r>
@@ -1103,10 +1103,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>24.07841241934235</c:v>
+                  <c:v>23.72345947690639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07841241934235</c:v>
+                  <c:v>23.72345947690639</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1130,136 +1130,136 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.25585392237125</c:v>
+                  <c:v>21.9108396623235</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.41010840549592</c:v>
+                  <c:v>32.00972148642816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.48425585717768</c:v>
+                  <c:v>60.92532329048852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.20070333770614</c:v>
+                  <c:v>72.57787924137851</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78.92874432818671</c:v>
+                  <c:v>78.27468437292471</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>82.57386132212891</c:v>
+                  <c:v>81.8999240020905</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.33177080092656</c:v>
+                  <c:v>94.5882627041707</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.0155328280425</c:v>
+                  <c:v>78.36099960219057</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>103.9238322866474</c:v>
+                  <c:v>103.13347040149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119.1118197614066</c:v>
+                  <c:v>118.2386355230141</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>118.7646657619835</c:v>
+                  <c:v>117.8933746059507</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>126.2284767495794</c:v>
+                  <c:v>125.3164843228139</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114.5988177689067</c:v>
+                  <c:v>113.7502436011898</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>128.224612246262</c:v>
+                  <c:v>127.3017345959285</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>121.9758402566469</c:v>
+                  <c:v>121.0870380887872</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>150.1821027097709</c:v>
+                  <c:v>149.139487600189</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>163.3739546878474</c:v>
+                  <c:v>162.2594024485985</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>173.181055171549</c:v>
+                  <c:v>172.0130233556398</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>167.7133796806357</c:v>
+                  <c:v>166.5751639118911</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>192.9688331386638</c:v>
+                  <c:v>191.692895628254</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>197.7422006307309</c:v>
+                  <c:v>196.4402332378758</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>211.6283606076535</c:v>
+                  <c:v>210.2506699204121</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>211.1076296085189</c:v>
+                  <c:v>209.732778544817</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>218.6582290959707</c:v>
+                  <c:v>217.2422034909461</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>219.6129025943841</c:v>
+                  <c:v>218.1916710128705</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>232.9783315721721</c:v>
+                  <c:v>231.4842163198117</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>227.07671358198</c:v>
+                  <c:v>225.6147807297337</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>254.4150910365464</c:v>
+                  <c:v>252.8040779484771</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>269.9502325107286</c:v>
+                  <c:v>268.2545039870645</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>287.8286634810164</c:v>
+                  <c:v>286.03544121583</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>291.8209344743817</c:v>
+                  <c:v>290.0059417620591</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>303.971324454189</c:v>
+                  <c:v>302.0900738592784</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>290.7794724761125</c:v>
+                  <c:v>288.9701590108689</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>301.1073039589488</c:v>
+                  <c:v>299.2416712935053</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>304.318478453612</c:v>
+                  <c:v>302.4353347763418</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>307.4428644484197</c:v>
+                  <c:v>305.5426830299125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>326.4495459168325</c:v>
+                  <c:v>324.445718239134</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>333.3926259052938</c:v>
+                  <c:v>331.3509365804022</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>355.7840588680815</c:v>
+                  <c:v>353.6202657309919</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>352.659672873274</c:v>
+                  <c:v>350.5129174774212</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>370.885257842985</c:v>
+                  <c:v>368.6391156232502</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>390.7598243099554</c:v>
+                  <c:v>388.4053031251302</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>396.0539228011572</c:v>
+                  <c:v>393.6705321103472</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>401.9555407913493</c:v>
+                  <c:v>399.5399677004251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,163 +1457,163 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>20.9937438043972</c:v>
+                  <c:v>20.63879086196124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.9937438043972</c:v>
+                  <c:v>20.63879086196124</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.551297289366914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.551297289366914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.551297289366914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.551297289366914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.551297289366914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.551297289366914</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.551297289366914</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02764687145656831</c:v>
+                  <c:v>19.01300007954223</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.03208402366564717</c:v>
+                  <c:v>28.07022747836922</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04478869024719778</c:v>
+                  <c:v>53.99320609119797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.04990848125767339</c:v>
+                  <c:v>64.43554381410046</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.05241149019612813</c:v>
+                  <c:v>69.53980109908511</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.05400431406605386</c:v>
+                  <c:v>72.78766201497707</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.05957919761079399</c:v>
+                  <c:v>84.15332050373537</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.05244941457398351</c:v>
+                  <c:v>69.61713385793959</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.06333371101847608</c:v>
+                  <c:v>91.80611776136281</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.06997047714316672</c:v>
+                  <c:v>105.3305886709516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0698187796317452</c:v>
+                  <c:v>105.0215035692675</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.07308027612730744</c:v>
+                  <c:v>111.6663624833022</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.06799840949468722</c:v>
+                  <c:v>101.3123157229449</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.07395253681798107</c:v>
+                  <c:v>113.4433085533573</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.07122198161239408</c:v>
+                  <c:v>107.8804592492354</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.08354740441539092</c:v>
+                  <c:v>132.9850537982407</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0893119098494079</c:v>
+                  <c:v>144.7214393884035</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.09359736454706528</c:v>
+                  <c:v>153.4445164718799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.09120812874217665</c:v>
+                  <c:v>148.5814182947694</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1022441226980908</c:v>
+                  <c:v>171.0398711404774</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1043299634801364</c:v>
+                  <c:v>175.2833255145347</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1103978639369964</c:v>
+                  <c:v>187.6256236076157</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1101703176698641</c:v>
+                  <c:v>187.1628491128304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1134697385432817</c:v>
+                  <c:v>193.8726088488295</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1138869066996909</c:v>
+                  <c:v>194.7208973108975</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1197272608894186</c:v>
+                  <c:v>206.5952394779555</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1171484031952531</c:v>
+                  <c:v>201.352413852575</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1290945822196962</c:v>
+                  <c:v>225.6338385100227</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1358830458558083</c:v>
+                  <c:v>239.4259513492943</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1436954676940155</c:v>
+                  <c:v>255.2931442328835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1454399890753628</c:v>
+                  <c:v>258.8355299587107</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1507494019751152</c:v>
+                  <c:v>269.6149655479155</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1449848965410983</c:v>
+                  <c:v>257.9114565715426</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1494978975058879</c:v>
+                  <c:v>267.0743343074764</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1509010994865367</c:v>
+                  <c:v>269.9229109697129</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1522663770893302</c:v>
+                  <c:v>272.6943236354399</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1605718158396574</c:v>
+                  <c:v>289.5500226262776</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1636057660680874</c:v>
+                  <c:v>295.7057587573863</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1733902555547741</c:v>
+                  <c:v>315.5521862803971</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1720249779519806</c:v>
+                  <c:v>312.7834508476936</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1799890973016093</c:v>
+                  <c:v>328.9319682283033</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1886737798304902</c:v>
+                  <c:v>346.5348307695735</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1909871668796681</c:v>
+                  <c:v>351.2226219516825</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1935660245738335</c:v>
+                  <c:v>356.4477707895414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,244 +3012,244 @@
                   <c:v>0.004332066544257551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.493703792871985</c:v>
+                  <c:v>5.758150830500003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.31071779188231</c:v>
+                  <c:v>8.705218907121367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.54139019895037</c:v>
+                  <c:v>11.2069590699932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.10023216165239</c:v>
+                  <c:v>14.74833310850464</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.6523031589841</c:v>
+                  <c:v>16.73634939306546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.47007340373095</c:v>
+                  <c:v>18.93582889496729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.73812144560338</c:v>
+                  <c:v>19.14530202435967</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.53345703425147</c:v>
+                  <c:v>19.76708231677055</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.83943295442138</c:v>
+                  <c:v>20.78886143935205</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.91949015548252</c:v>
+                  <c:v>21.63461899049298</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.2537513336339</c:v>
+                  <c:v>22.68034448865002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.17940531545533</c:v>
+                  <c:v>23.40640987979867</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.33098929376656</c:v>
+                  <c:v>25.09590288187836</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.40192653755753</c:v>
+                  <c:v>27.5116688823739</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.65721202867301</c:v>
+                  <c:v>27.71271834341526</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.13682347280955</c:v>
+                  <c:v>29.66732501643428</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.65051006198087</c:v>
+                  <c:v>30.86210374876974</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.97315227254633</c:v>
+                  <c:v>31.90705748535569</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.31890246523696</c:v>
+                  <c:v>33.76251396617624</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.2072100197113</c:v>
+                  <c:v>35.25815266291391</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47.06207174217398</c:v>
+                  <c:v>36.72902329245179</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.30319742101341</c:v>
+                  <c:v>37.71415490934135</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49.30505437662296</c:v>
+                  <c:v>38.50991495066923</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.45746063256392</c:v>
+                  <c:v>39.425852115487</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.80409116667811</c:v>
+                  <c:v>40.49696361682464</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>51.97404454937362</c:v>
+                  <c:v>40.63220594027271</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52.52685535377153</c:v>
+                  <c:v>41.07220580211645</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53.05907099834283</c:v>
+                  <c:v>41.49594938653949</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>54.54206526478647</c:v>
+                  <c:v>42.677391325771</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>56.11590845673281</c:v>
+                  <c:v>43.93232666088149</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>57.26504835711526</c:v>
+                  <c:v>44.84933635254669</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>59.36697479009287</c:v>
+                  <c:v>46.52822175094613</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.57659312821564</c:v>
+                  <c:v>49.09568549299127</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>63.56793831107323</c:v>
+                  <c:v>49.88961152637905</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.92969127585178</c:v>
+                  <c:v>51.78276519131716</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>68.12737747392521</c:v>
+                  <c:v>53.54656314879759</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>70.00363453728131</c:v>
+                  <c:v>55.05401520764965</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72.02070925665933</c:v>
+                  <c:v>56.67625162808804</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>76.0136371487143</c:v>
+                  <c:v>59.89251956948155</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77.15742150158982</c:v>
+                  <c:v>60.81502091965464</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>77.75281488382124</c:v>
+                  <c:v>61.29543391812891</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>80.29990606591842</c:v>
+                  <c:v>63.35223138835602</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>81.88444948145973</c:v>
+                  <c:v>64.63305303548222</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>84.70393566708749</c:v>
+                  <c:v>66.91451780277467</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86.10827610305275</c:v>
+                  <c:v>68.05201697077524</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>87.53950440557034</c:v>
+                  <c:v>69.21206512292221</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>89.22785655577026</c:v>
+                  <c:v>70.58150941628628</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>93.28208179892086</c:v>
+                  <c:v>73.87426079719616</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>96.46930850132142</c:v>
+                  <c:v>76.46706060998433</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>102.5720414729492</c:v>
+                  <c:v>81.44168415607032</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>106.7789426707088</c:v>
+                  <c:v>84.8784337267773</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>111.5946031921075</c:v>
+                  <c:v>88.81980944338119</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>115.3278557764988</c:v>
+                  <c:v>91.88053525485333</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>126.2224872586627</c:v>
+                  <c:v>100.8378557427695</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>129.1984272943809</c:v>
+                  <c:v>103.2909604485731</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>132.6625710219365</c:v>
+                  <c:v>106.1498300805015</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>136.3851050796667</c:v>
+                  <c:v>109.2258706597481</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>143.6334771681825</c:v>
+                  <c:v>115.226814056559</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>150.8271741431847</c:v>
+                  <c:v>121.196946193089</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>152.3684794317722</c:v>
+                  <c:v>122.4779185373207</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>154.8423999796061</c:v>
+                  <c:v>124.5353063741853</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>158.0521474679834</c:v>
+                  <c:v>127.2070324442273</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>158.8960719164999</c:v>
+                  <c:v>127.9099432145511</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>160.1575213733125</c:v>
+                  <c:v>128.9609568746762</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>161.2127817593135</c:v>
+                  <c:v>129.840492523237</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>162.348120535013</c:v>
+                  <c:v>130.7870899142785</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>165.3984887440804</c:v>
+                  <c:v>133.331978323055</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>167.3302733322192</c:v>
+                  <c:v>134.944855054358</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>168.8059018296464</c:v>
+                  <c:v>136.1775061370531</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>170.4434594715728</c:v>
+                  <c:v>137.5460530698118</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>174.4485251680217</c:v>
+                  <c:v>140.8959475229654</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>177.461294951975</c:v>
+                  <c:v>143.4184235950486</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>180.1520151038599</c:v>
+                  <c:v>145.6730860651375</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>182.530202792901</c:v>
+                  <c:v>147.6672826612538</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>185.416465631561</c:v>
+                  <c:v>150.0892850824793</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>187.8398735820485</c:v>
+                  <c:v>152.1243630576361</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>189.2245573394096</c:v>
+                  <c:v>153.2877638122948</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>190.2172267531603</c:v>
+                  <c:v>154.122064018229</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>192.9713282318071</c:v>
+                  <c:v>156.4379383738769</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>194.6535571070633</c:v>
+                  <c:v>157.8533259811684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6456,13 +6456,13 @@
         <v>-1.728575548181971</v>
       </c>
       <c r="S3">
-        <v>24.07841241934235</v>
+        <v>23.72345947690639</v>
       </c>
       <c r="T3">
         <v>0.004332066544257551</v>
       </c>
       <c r="V3">
-        <v>20.9937438043972</v>
+        <v>20.63879086196124</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -6515,13 +6515,13 @@
         <v>-2.334693523567626</v>
       </c>
       <c r="S4">
-        <v>24.07841241934235</v>
+        <v>23.72345947690639</v>
       </c>
       <c r="T4">
         <v>0.004332066544257551</v>
       </c>
       <c r="V4">
-        <v>20.9937438043972</v>
+        <v>20.63879086196124</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -6639,7 +6639,7 @@
         <v>0.004332066544257551</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>3.551297289366914</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -6698,7 +6698,7 @@
         <v>0.004332066544257551</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3.551297289366914</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -6754,10 +6754,10 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7.493703792871985</v>
+        <v>5.758150830500003</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>3.551297289366914</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -6813,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>11.31071779188231</v>
+        <v>8.705218907121367</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3.551297289366914</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -6872,10 +6872,10 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>14.54139019895037</v>
+        <v>11.2069590699932</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>3.551297289366914</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -6931,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>19.10023216165239</v>
+        <v>14.74833310850464</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>3.551297289366914</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -6987,13 +6987,13 @@
         <v>-7.667914792991539</v>
       </c>
       <c r="S12">
-        <v>22.25585392237125</v>
+        <v>21.9108396623235</v>
       </c>
       <c r="T12">
-        <v>21.6523031589841</v>
+        <v>16.73634939306546</v>
       </c>
       <c r="V12">
-        <v>0.02764687145656831</v>
+        <v>19.01300007954223</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -7046,13 +7046,13 @@
         <v>-8.347291302297853</v>
       </c>
       <c r="S13">
-        <v>32.41010840549592</v>
+        <v>32.00972148642816</v>
       </c>
       <c r="T13">
-        <v>24.47007340373095</v>
+        <v>18.93582889496729</v>
       </c>
       <c r="V13">
-        <v>0.03208402366564717</v>
+        <v>28.07022747836922</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -7105,13 +7105,13 @@
         <v>-9.072165216881208</v>
       </c>
       <c r="S14">
-        <v>61.48425585717768</v>
+        <v>60.92532329048852</v>
       </c>
       <c r="T14">
-        <v>24.73812144560338</v>
+        <v>19.14530202435967</v>
       </c>
       <c r="V14">
-        <v>0.04478869024719778</v>
+        <v>53.99320609119797</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -7164,13 +7164,13 @@
         <v>-9.782387424680429</v>
       </c>
       <c r="S15">
-        <v>73.20070333770614</v>
+        <v>72.57787924137851</v>
       </c>
       <c r="T15">
-        <v>25.53345703425147</v>
+        <v>19.76708231677055</v>
       </c>
       <c r="V15">
-        <v>0.04990848125767339</v>
+        <v>64.43554381410046</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -7223,13 +7223,13 @@
         <v>-10.59517157996858</v>
       </c>
       <c r="S16">
-        <v>78.92874432818671</v>
+        <v>78.27468437292471</v>
       </c>
       <c r="T16">
-        <v>26.83943295442138</v>
+        <v>20.78886143935205</v>
       </c>
       <c r="V16">
-        <v>0.05241149019612813</v>
+        <v>69.53980109908511</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -7282,13 +7282,13 @@
         <v>-11.68248245184361</v>
       </c>
       <c r="S17">
-        <v>82.57386132212891</v>
+        <v>81.8999240020905</v>
       </c>
       <c r="T17">
-        <v>27.91949015548252</v>
+        <v>21.63461899049298</v>
       </c>
       <c r="V17">
-        <v>0.05400431406605386</v>
+        <v>72.78766201497707</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -7341,13 +7341,13 @@
         <v>-12.89780297246421</v>
       </c>
       <c r="S18">
-        <v>95.33177080092656</v>
+        <v>94.5882627041707</v>
       </c>
       <c r="T18">
-        <v>29.2537513336339</v>
+        <v>22.68034448865002</v>
       </c>
       <c r="V18">
-        <v>0.05957919761079399</v>
+        <v>84.15332050373537</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -7400,13 +7400,13 @@
         <v>-13.70596027297842</v>
       </c>
       <c r="S19">
-        <v>79.0155328280425</v>
+        <v>78.36099960219057</v>
       </c>
       <c r="T19">
-        <v>30.17940531545533</v>
+        <v>23.40640987979867</v>
       </c>
       <c r="V19">
-        <v>0.05244941457398351</v>
+        <v>69.61713385793959</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -7441,13 +7441,13 @@
         <v>18.1368</v>
       </c>
       <c r="S20">
-        <v>103.9238322866474</v>
+        <v>103.13347040149</v>
       </c>
       <c r="T20">
-        <v>32.33098929376656</v>
+        <v>25.09590288187836</v>
       </c>
       <c r="V20">
-        <v>0.06333371101847608</v>
+        <v>91.80611776136281</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -7482,13 +7482,13 @@
         <v>18.0504</v>
       </c>
       <c r="S21">
-        <v>119.1118197614066</v>
+        <v>118.2386355230141</v>
       </c>
       <c r="T21">
-        <v>35.40192653755753</v>
+        <v>27.5116688823739</v>
       </c>
       <c r="V21">
-        <v>0.06997047714316672</v>
+        <v>105.3305886709516</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -7523,13 +7523,13 @@
         <v>18.0936</v>
       </c>
       <c r="S22">
-        <v>118.7646657619835</v>
+        <v>117.8933746059507</v>
       </c>
       <c r="T22">
-        <v>35.65721202867301</v>
+        <v>27.71271834341526</v>
       </c>
       <c r="V22">
-        <v>0.0698187796317452</v>
+        <v>105.0215035692675</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -7564,13 +7564,13 @@
         <v>18.252</v>
       </c>
       <c r="S23">
-        <v>126.2284767495794</v>
+        <v>125.3164843228139</v>
       </c>
       <c r="T23">
-        <v>38.13682347280955</v>
+        <v>29.66732501643428</v>
       </c>
       <c r="V23">
-        <v>0.07308027612730744</v>
+        <v>111.6663624833022</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -7605,13 +7605,13 @@
         <v>18.1944</v>
       </c>
       <c r="S24">
-        <v>114.5988177689067</v>
+        <v>113.7502436011898</v>
       </c>
       <c r="T24">
-        <v>39.65051006198087</v>
+        <v>30.86210374876974</v>
       </c>
       <c r="V24">
-        <v>0.06799840949468722</v>
+        <v>101.3123157229449</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -7646,13 +7646,13 @@
         <v>18.0252</v>
       </c>
       <c r="S25">
-        <v>128.224612246262</v>
+        <v>127.3017345959285</v>
       </c>
       <c r="T25">
-        <v>40.97315227254633</v>
+        <v>31.90705748535569</v>
       </c>
       <c r="V25">
-        <v>0.07395253681798107</v>
+        <v>113.4433085533573</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -7687,13 +7687,13 @@
         <v>18.3564</v>
       </c>
       <c r="S26">
-        <v>121.9758402566469</v>
+        <v>121.0870380887872</v>
       </c>
       <c r="T26">
-        <v>43.31890246523696</v>
+        <v>33.76251396617624</v>
       </c>
       <c r="V26">
-        <v>0.07122198161239408</v>
+        <v>107.8804592492354</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -7728,13 +7728,13 @@
         <v>18.6552</v>
       </c>
       <c r="S27">
-        <v>150.1821027097709</v>
+        <v>149.139487600189</v>
       </c>
       <c r="T27">
-        <v>45.2072100197113</v>
+        <v>35.25815266291391</v>
       </c>
       <c r="V27">
-        <v>0.08354740441539092</v>
+        <v>132.9850537982407</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -7769,13 +7769,13 @@
         <v>18.2844</v>
       </c>
       <c r="S28">
-        <v>163.3739546878474</v>
+        <v>162.2594024485985</v>
       </c>
       <c r="T28">
-        <v>47.06207174217398</v>
+        <v>36.72902329245179</v>
       </c>
       <c r="V28">
-        <v>0.0893119098494079</v>
+        <v>144.7214393884035</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -7810,13 +7810,13 @@
         <v>18.2736</v>
       </c>
       <c r="S29">
-        <v>173.181055171549</v>
+        <v>172.0130233556398</v>
       </c>
       <c r="T29">
-        <v>48.30319742101341</v>
+        <v>37.71415490934135</v>
       </c>
       <c r="V29">
-        <v>0.09359736454706528</v>
+        <v>153.4445164718799</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -7851,13 +7851,13 @@
         <v>18.288</v>
       </c>
       <c r="S30">
-        <v>167.7133796806357</v>
+        <v>166.5751639118911</v>
       </c>
       <c r="T30">
-        <v>49.30505437662296</v>
+        <v>38.50991495066923</v>
       </c>
       <c r="V30">
-        <v>0.09120812874217665</v>
+        <v>148.5814182947694</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -7892,13 +7892,13 @@
         <v>18.684</v>
       </c>
       <c r="S31">
-        <v>192.9688331386638</v>
+        <v>191.692895628254</v>
       </c>
       <c r="T31">
-        <v>50.45746063256392</v>
+        <v>39.425852115487</v>
       </c>
       <c r="V31">
-        <v>0.1022441226980908</v>
+        <v>171.0398711404774</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -7933,13 +7933,13 @@
         <v>18.9036</v>
       </c>
       <c r="S32">
-        <v>197.7422006307309</v>
+        <v>196.4402332378758</v>
       </c>
       <c r="T32">
-        <v>51.80409116667811</v>
+        <v>40.49696361682464</v>
       </c>
       <c r="V32">
-        <v>0.1043299634801364</v>
+        <v>175.2833255145347</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -7974,13 +7974,13 @@
         <v>18.6984</v>
       </c>
       <c r="S33">
-        <v>211.6283606076535</v>
+        <v>210.2506699204121</v>
       </c>
       <c r="T33">
-        <v>51.97404454937362</v>
+        <v>40.63220594027271</v>
       </c>
       <c r="V33">
-        <v>0.1103978639369964</v>
+        <v>187.6256236076157</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -8015,13 +8015,13 @@
         <v>18.522</v>
       </c>
       <c r="S34">
-        <v>211.1076296085189</v>
+        <v>209.732778544817</v>
       </c>
       <c r="T34">
-        <v>52.52685535377153</v>
+        <v>41.07220580211645</v>
       </c>
       <c r="V34">
-        <v>0.1101703176698641</v>
+        <v>187.1628491128304</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -8056,13 +8056,13 @@
         <v>18.252</v>
       </c>
       <c r="S35">
-        <v>218.6582290959707</v>
+        <v>217.2422034909461</v>
       </c>
       <c r="T35">
-        <v>53.05907099834283</v>
+        <v>41.49594938653949</v>
       </c>
       <c r="V35">
-        <v>0.1134697385432817</v>
+        <v>193.8726088488295</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -8097,13 +8097,13 @@
         <v>18.1728</v>
       </c>
       <c r="S36">
-        <v>219.6129025943841</v>
+        <v>218.1916710128705</v>
       </c>
       <c r="T36">
-        <v>54.54206526478647</v>
+        <v>42.677391325771</v>
       </c>
       <c r="V36">
-        <v>0.1138869066996909</v>
+        <v>194.7208973108975</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -8138,13 +8138,13 @@
         <v>18.2952</v>
       </c>
       <c r="S37">
-        <v>232.9783315721721</v>
+        <v>231.4842163198117</v>
       </c>
       <c r="T37">
-        <v>56.11590845673281</v>
+        <v>43.93232666088149</v>
       </c>
       <c r="V37">
-        <v>0.1197272608894186</v>
+        <v>206.5952394779555</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -8179,13 +8179,13 @@
         <v>18.09</v>
       </c>
       <c r="S38">
-        <v>227.07671358198</v>
+        <v>225.6147807297337</v>
       </c>
       <c r="T38">
-        <v>57.26504835711526</v>
+        <v>44.84933635254669</v>
       </c>
       <c r="V38">
-        <v>0.1171484031952531</v>
+        <v>201.352413852575</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -8220,13 +8220,13 @@
         <v>18.0072</v>
       </c>
       <c r="S39">
-        <v>254.4150910365464</v>
+        <v>252.8040779484771</v>
       </c>
       <c r="T39">
-        <v>59.36697479009287</v>
+        <v>46.52822175094613</v>
       </c>
       <c r="V39">
-        <v>0.1290945822196962</v>
+        <v>225.6338385100227</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -8261,13 +8261,13 @@
         <v>17.6652</v>
       </c>
       <c r="S40">
-        <v>269.9502325107286</v>
+        <v>268.2545039870645</v>
       </c>
       <c r="T40">
-        <v>62.57659312821564</v>
+        <v>49.09568549299127</v>
       </c>
       <c r="V40">
-        <v>0.1358830458558083</v>
+        <v>239.4259513492943</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -8302,13 +8302,13 @@
         <v>17.8488</v>
       </c>
       <c r="S41">
-        <v>287.8286634810164</v>
+        <v>286.03544121583</v>
       </c>
       <c r="T41">
-        <v>63.56793831107323</v>
+        <v>49.88961152637905</v>
       </c>
       <c r="V41">
-        <v>0.1436954676940155</v>
+        <v>255.2931442328835</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -8343,13 +8343,13 @@
         <v>18.054</v>
       </c>
       <c r="S42">
-        <v>291.8209344743817</v>
+        <v>290.0059417620591</v>
       </c>
       <c r="T42">
-        <v>65.92969127585178</v>
+        <v>51.78276519131716</v>
       </c>
       <c r="V42">
-        <v>0.1454399890753628</v>
+        <v>258.8355299587107</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -8384,13 +8384,13 @@
         <v>18.0648</v>
       </c>
       <c r="S43">
-        <v>303.971324454189</v>
+        <v>302.0900738592784</v>
       </c>
       <c r="T43">
-        <v>68.12737747392521</v>
+        <v>53.54656314879759</v>
       </c>
       <c r="V43">
-        <v>0.1507494019751152</v>
+        <v>269.6149655479155</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -8425,13 +8425,13 @@
         <v>19.6884</v>
       </c>
       <c r="S44">
-        <v>290.7794724761125</v>
+        <v>288.9701590108689</v>
       </c>
       <c r="T44">
-        <v>70.00363453728131</v>
+        <v>55.05401520764965</v>
       </c>
       <c r="V44">
-        <v>0.1449848965410983</v>
+        <v>257.9114565715426</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -8466,13 +8466,13 @@
         <v>22.5504</v>
       </c>
       <c r="S45">
-        <v>301.1073039589488</v>
+        <v>299.2416712935053</v>
       </c>
       <c r="T45">
-        <v>72.02070925665933</v>
+        <v>56.67625162808804</v>
       </c>
       <c r="V45">
-        <v>0.1494978975058879</v>
+        <v>267.0743343074764</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -8507,13 +8507,13 @@
         <v>24.5196</v>
       </c>
       <c r="S46">
-        <v>304.318478453612</v>
+        <v>302.4353347763418</v>
       </c>
       <c r="T46">
-        <v>76.0136371487143</v>
+        <v>59.89251956948155</v>
       </c>
       <c r="V46">
-        <v>0.1509010994865367</v>
+        <v>269.9229109697129</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -8548,13 +8548,13 @@
         <v>26.1504</v>
       </c>
       <c r="S47">
-        <v>307.4428644484197</v>
+        <v>305.5426830299125</v>
       </c>
       <c r="T47">
-        <v>77.15742150158982</v>
+        <v>60.81502091965464</v>
       </c>
       <c r="V47">
-        <v>0.1522663770893302</v>
+        <v>272.6943236354399</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -8589,13 +8589,13 @@
         <v>25.2144</v>
       </c>
       <c r="S48">
-        <v>326.4495459168325</v>
+        <v>324.445718239134</v>
       </c>
       <c r="T48">
-        <v>77.75281488382124</v>
+        <v>61.29543391812891</v>
       </c>
       <c r="V48">
-        <v>0.1605718158396574</v>
+        <v>289.5500226262776</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -8630,13 +8630,13 @@
         <v>24.0444</v>
       </c>
       <c r="S49">
-        <v>333.3926259052938</v>
+        <v>331.3509365804022</v>
       </c>
       <c r="T49">
-        <v>80.29990606591842</v>
+        <v>63.35223138835602</v>
       </c>
       <c r="V49">
-        <v>0.1636057660680874</v>
+        <v>295.7057587573863</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -8671,13 +8671,13 @@
         <v>25.074</v>
       </c>
       <c r="S50">
-        <v>355.7840588680815</v>
+        <v>353.6202657309919</v>
       </c>
       <c r="T50">
-        <v>81.88444948145973</v>
+        <v>64.63305303548222</v>
       </c>
       <c r="V50">
-        <v>0.1733902555547741</v>
+        <v>315.5521862803971</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -8712,13 +8712,13 @@
         <v>25.3476</v>
       </c>
       <c r="S51">
-        <v>352.659672873274</v>
+        <v>350.5129174774212</v>
       </c>
       <c r="T51">
-        <v>84.70393566708749</v>
+        <v>66.91451780277467</v>
       </c>
       <c r="V51">
-        <v>0.1720249779519806</v>
+        <v>312.7834508476936</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -8753,13 +8753,13 @@
         <v>25.0092</v>
       </c>
       <c r="S52">
-        <v>370.885257842985</v>
+        <v>368.6391156232502</v>
       </c>
       <c r="T52">
-        <v>86.10827610305275</v>
+        <v>68.05201697077524</v>
       </c>
       <c r="V52">
-        <v>0.1799890973016093</v>
+        <v>328.9319682283033</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -8794,13 +8794,13 @@
         <v>24.8508</v>
       </c>
       <c r="S53">
-        <v>390.7598243099554</v>
+        <v>388.4053031251302</v>
       </c>
       <c r="T53">
-        <v>87.53950440557034</v>
+        <v>69.21206512292221</v>
       </c>
       <c r="V53">
-        <v>0.1886737798304902</v>
+        <v>346.5348307695735</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -8835,13 +8835,13 @@
         <v>24.7644</v>
       </c>
       <c r="S54">
-        <v>396.0539228011572</v>
+        <v>393.6705321103472</v>
       </c>
       <c r="T54">
-        <v>89.22785655577026</v>
+        <v>70.58150941628628</v>
       </c>
       <c r="V54">
-        <v>0.1909871668796681</v>
+        <v>351.2226219516825</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -8876,13 +8876,13 @@
         <v>24.7032</v>
       </c>
       <c r="S55">
-        <v>401.9555407913493</v>
+        <v>399.5399677004251</v>
       </c>
       <c r="T55">
-        <v>93.28208179892086</v>
+        <v>73.87426079719616</v>
       </c>
       <c r="V55">
-        <v>0.1935660245738335</v>
+        <v>356.4477707895414</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -8908,7 +8908,7 @@
         <v>24.9444</v>
       </c>
       <c r="T56">
-        <v>96.46930850132142</v>
+        <v>76.46706060998433</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -8934,7 +8934,7 @@
         <v>25.1316</v>
       </c>
       <c r="T57">
-        <v>102.5720414729492</v>
+        <v>81.44168415607032</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -8960,7 +8960,7 @@
         <v>25.1316</v>
       </c>
       <c r="T58">
-        <v>106.7789426707088</v>
+        <v>84.8784337267773</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -8986,7 +8986,7 @@
         <v>25.308</v>
       </c>
       <c r="T59">
-        <v>111.5946031921075</v>
+        <v>88.81980944338119</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -9012,7 +9012,7 @@
         <v>25.3404</v>
       </c>
       <c r="T60">
-        <v>115.3278557764988</v>
+        <v>91.88053525485333</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -9038,7 +9038,7 @@
         <v>25.0524</v>
       </c>
       <c r="T61">
-        <v>126.2224872586627</v>
+        <v>100.8378557427695</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>25.1748</v>
       </c>
       <c r="T62">
-        <v>129.1984272943809</v>
+        <v>103.2909604485731</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -9090,7 +9090,7 @@
         <v>25.128</v>
       </c>
       <c r="T63">
-        <v>132.6625710219365</v>
+        <v>106.1498300805015</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -9116,7 +9116,7 @@
         <v>24.8832</v>
       </c>
       <c r="T64">
-        <v>136.3851050796667</v>
+        <v>109.2258706597481</v>
       </c>
     </row>
     <row r="65" spans="4:20">
@@ -9142,7 +9142,7 @@
         <v>24.7932</v>
       </c>
       <c r="T65">
-        <v>143.6334771681825</v>
+        <v>115.226814056559</v>
       </c>
     </row>
     <row r="66" spans="4:20">
@@ -9168,7 +9168,7 @@
         <v>24.9264</v>
       </c>
       <c r="T66">
-        <v>150.8271741431847</v>
+        <v>121.196946193089</v>
       </c>
     </row>
     <row r="67" spans="4:20">
@@ -9194,7 +9194,7 @@
         <v>25.488</v>
       </c>
       <c r="T67">
-        <v>152.3684794317722</v>
+        <v>122.4779185373207</v>
       </c>
     </row>
     <row r="68" spans="4:20">
@@ -9220,7 +9220,7 @@
         <v>25.326</v>
       </c>
       <c r="T68">
-        <v>154.8423999796061</v>
+        <v>124.5353063741853</v>
       </c>
     </row>
     <row r="69" spans="4:20">
@@ -9246,7 +9246,7 @@
         <v>25.3872</v>
       </c>
       <c r="T69">
-        <v>158.0521474679834</v>
+        <v>127.2070324442273</v>
       </c>
     </row>
     <row r="70" spans="4:20">
@@ -9272,7 +9272,7 @@
         <v>25.4628</v>
       </c>
       <c r="T70">
-        <v>158.8960719164999</v>
+        <v>127.9099432145511</v>
       </c>
     </row>
     <row r="71" spans="4:20">
@@ -9298,7 +9298,7 @@
         <v>25.5312</v>
       </c>
       <c r="T71">
-        <v>160.1575213733125</v>
+        <v>128.9609568746762</v>
       </c>
     </row>
     <row r="72" spans="4:20">
@@ -9324,7 +9324,7 @@
         <v>25.5276</v>
       </c>
       <c r="T72">
-        <v>161.2127817593135</v>
+        <v>129.840492523237</v>
       </c>
     </row>
     <row r="73" spans="4:20">
@@ -9350,7 +9350,7 @@
         <v>25.2252</v>
       </c>
       <c r="T73">
-        <v>162.348120535013</v>
+        <v>130.7870899142785</v>
       </c>
     </row>
     <row r="74" spans="4:20">
@@ -9376,7 +9376,7 @@
         <v>25.038</v>
       </c>
       <c r="T74">
-        <v>165.3984887440804</v>
+        <v>133.331978323055</v>
       </c>
     </row>
     <row r="75" spans="4:20">
@@ -9402,7 +9402,7 @@
         <v>25.1244</v>
       </c>
       <c r="T75">
-        <v>167.3302733322192</v>
+        <v>134.944855054358</v>
       </c>
     </row>
     <row r="76" spans="4:20">
@@ -9428,7 +9428,7 @@
         <v>24.7212</v>
       </c>
       <c r="T76">
-        <v>168.8059018296464</v>
+        <v>136.1775061370531</v>
       </c>
     </row>
     <row r="77" spans="4:20">
@@ -9454,7 +9454,7 @@
         <v>24.6456</v>
       </c>
       <c r="T77">
-        <v>170.4434594715728</v>
+        <v>137.5460530698118</v>
       </c>
     </row>
     <row r="78" spans="4:20">
@@ -9480,7 +9480,7 @@
         <v>24.5592</v>
       </c>
       <c r="T78">
-        <v>174.4485251680217</v>
+        <v>140.8959475229654</v>
       </c>
     </row>
     <row r="79" spans="4:20">
@@ -9506,7 +9506,7 @@
         <v>24.4728</v>
       </c>
       <c r="T79">
-        <v>177.461294951975</v>
+        <v>143.4184235950486</v>
       </c>
     </row>
     <row r="80" spans="4:20">
@@ -9532,7 +9532,7 @@
         <v>24.4044</v>
       </c>
       <c r="T80">
-        <v>180.1520151038599</v>
+        <v>145.6730860651375</v>
       </c>
     </row>
     <row r="81" spans="4:20">
@@ -9558,7 +9558,7 @@
         <v>24.7572</v>
       </c>
       <c r="T81">
-        <v>182.530202792901</v>
+        <v>147.6672826612538</v>
       </c>
     </row>
     <row r="82" spans="4:20">
@@ -9584,7 +9584,7 @@
         <v>27.288</v>
       </c>
       <c r="T82">
-        <v>185.416465631561</v>
+        <v>150.0892850824793</v>
       </c>
     </row>
     <row r="83" spans="4:20">
@@ -9610,7 +9610,7 @@
         <v>29.4804</v>
       </c>
       <c r="T83">
-        <v>187.8398735820485</v>
+        <v>152.1243630576361</v>
       </c>
     </row>
     <row r="84" spans="4:20">
@@ -9636,7 +9636,7 @@
         <v>30.672</v>
       </c>
       <c r="T84">
-        <v>189.2245573394096</v>
+        <v>153.2877638122948</v>
       </c>
     </row>
     <row r="85" spans="4:20">
@@ -9662,7 +9662,7 @@
         <v>32.24160000000001</v>
       </c>
       <c r="T85">
-        <v>190.2172267531603</v>
+        <v>154.122064018229</v>
       </c>
     </row>
     <row r="86" spans="4:20">
@@ -9688,7 +9688,7 @@
         <v>32.7312</v>
       </c>
       <c r="T86">
-        <v>192.9713282318071</v>
+        <v>156.4379383738769</v>
       </c>
     </row>
     <row r="87" spans="4:20">
@@ -9714,7 +9714,7 @@
         <v>32.9184</v>
       </c>
       <c r="T87">
-        <v>194.6535571070633</v>
+        <v>157.8533259811684</v>
       </c>
     </row>
     <row r="88" spans="4:20">

--- a/KickR.xlsx
+++ b/KickR.xlsx
@@ -68,7 +68,7 @@
     <t>Simulated Mass:</t>
   </si>
   <si>
-    <t>-0.44</t>
+    <t>22.0</t>
   </si>
   <si>
     <r>
@@ -1103,10 +1103,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>24.07841241934235</c:v>
+                  <c:v>22.61332663615532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07841241934235</c:v>
+                  <c:v>22.61332663615532</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1130,136 +1130,136 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.25585392237125</c:v>
+                  <c:v>20.83179054111346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.41010840549592</c:v>
+                  <c:v>30.75749164206095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61.48425585717768</c:v>
+                  <c:v>59.17723411058584</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>73.20070333770614</c:v>
+                  <c:v>70.62996615014065</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78.92874432818671</c:v>
+                  <c:v>76.22907959170075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>82.57386132212891</c:v>
+                  <c:v>79.79215178178448</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.33177080092656</c:v>
+                  <c:v>92.26290444707747</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.0155328280425</c:v>
+                  <c:v>76.31391464384562</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>103.9238322866474</c:v>
+                  <c:v>100.6615746094177</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119.1118197614066</c:v>
+                  <c:v>115.5077087347665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>118.7646657619835</c:v>
+                  <c:v>115.1683685261871</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>126.2284767495794</c:v>
+                  <c:v>122.4641830106442</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114.5988177689067</c:v>
+                  <c:v>111.0962860232343</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>128.224612246262</c:v>
+                  <c:v>124.4153892099758</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>121.9758402566469</c:v>
+                  <c:v>118.3072654555465</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>150.1821027097709</c:v>
+                  <c:v>145.8786574026229</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>163.3739546878474</c:v>
+                  <c:v>158.7735853286402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>173.181055171549</c:v>
+                  <c:v>168.3599462210083</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>167.7133796806357</c:v>
+                  <c:v>163.0153379358827</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>192.9688331386638</c:v>
+                  <c:v>187.7023381100342</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>197.7422006307309</c:v>
+                  <c:v>192.3682659780009</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>211.6283606076535</c:v>
+                  <c:v>205.941874321177</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>211.1076296085189</c:v>
+                  <c:v>205.4328640083079</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>218.6582290959707</c:v>
+                  <c:v>212.8135135449099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>219.6129025943841</c:v>
+                  <c:v>213.7466991185032</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>232.9783315721721</c:v>
+                  <c:v>226.8112971488102</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>227.07671358198</c:v>
+                  <c:v>221.0425136029603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>254.4150910365464</c:v>
+                  <c:v>247.7655550285882</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>269.9502325107286</c:v>
+                  <c:v>262.9510293625165</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>287.8286634810164</c:v>
+                  <c:v>280.4270501043556</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>291.8209344743817</c:v>
+                  <c:v>284.3294625030187</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>303.971324454189</c:v>
+                  <c:v>296.2063698032978</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>290.7794724761125</c:v>
+                  <c:v>283.3114418772805</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>301.1073039589488</c:v>
+                  <c:v>293.4068130825177</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>304.318478453612</c:v>
+                  <c:v>296.5457100118771</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>307.4428644484197</c:v>
+                  <c:v>299.5997718890918</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>326.4495459168325</c:v>
+                  <c:v>318.178648308814</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>333.3926259052938</c:v>
+                  <c:v>324.965452480402</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>355.7840588680815</c:v>
+                  <c:v>346.8528959337734</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>352.659672873274</c:v>
+                  <c:v>343.7988340565588</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>370.885257842985</c:v>
+                  <c:v>361.6141950069775</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>390.7598243099554</c:v>
+                  <c:v>381.0414219481481</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>396.0539228011572</c:v>
+                  <c:v>386.2163601289841</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>401.9555407913493</c:v>
+                  <c:v>391.9851436748339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,13 +1457,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>20.9937438043972</c:v>
+                  <c:v>19.52865802121017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.9937438043972</c:v>
+                  <c:v>19.52865802121017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.551297289366914</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1484,136 +1484,136 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02764687145656831</c:v>
+                  <c:v>17.93395095833219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.03208402366564717</c:v>
+                  <c:v>26.81799763400202</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04478869024719778</c:v>
+                  <c:v>52.24511691129529</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.04990848125767339</c:v>
+                  <c:v>62.48763072286258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.05241149019612813</c:v>
+                  <c:v>67.49419631786115</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.05400431406605386</c:v>
+                  <c:v>70.67988979467106</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.05957919761079399</c:v>
+                  <c:v>81.82796224664214</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.05244941457398351</c:v>
+                  <c:v>67.57004889959464</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.06333371101847608</c:v>
+                  <c:v>89.33422196929045</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.06997047714316672</c:v>
+                  <c:v>102.599661882704</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0698187796317452</c:v>
+                  <c:v>102.2964974895038</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.07308027612730744</c:v>
+                  <c:v>108.8140611711325</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.06799840949468722</c:v>
+                  <c:v>98.65835814498939</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.07395253681798107</c:v>
+                  <c:v>110.5569631674045</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.07122198161239408</c:v>
+                  <c:v>105.1006866159947</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.08354740441539092</c:v>
+                  <c:v>129.7242236006746</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0893119098494079</c:v>
+                  <c:v>141.2356222684451</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.09359736454706528</c:v>
+                  <c:v>149.7914393372484</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.09120812874217665</c:v>
+                  <c:v>145.021592318761</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1022441226980908</c:v>
+                  <c:v>167.0493136222576</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1043299634801364</c:v>
+                  <c:v>171.2113582546598</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1103978639369964</c:v>
+                  <c:v>183.3168280083806</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1101703176698641</c:v>
+                  <c:v>182.8629345763213</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1134697385432817</c:v>
+                  <c:v>189.4439189027933</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1138869066996909</c:v>
+                  <c:v>190.2759254165302</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1197272608894186</c:v>
+                  <c:v>201.922320306954</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1171484031952531</c:v>
+                  <c:v>196.7801467258016</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1290945822196962</c:v>
+                  <c:v>220.5953155901338</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1358830458558083</c:v>
+                  <c:v>234.1224767247462</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1436954676940155</c:v>
+                  <c:v>249.6847531214091</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1454399890753628</c:v>
+                  <c:v>253.1590506996703</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1507494019751152</c:v>
+                  <c:v>263.7312614919348</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1449848965410983</c:v>
+                  <c:v>252.2527394379542</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1494978975058879</c:v>
+                  <c:v>261.2394760964888</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1509010994865367</c:v>
+                  <c:v>264.0332862052482</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1522663770893302</c:v>
+                  <c:v>266.7514124946192</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1605718158396574</c:v>
+                  <c:v>283.2829526959575</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.1636057660680874</c:v>
+                  <c:v>289.3202746573862</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1733902555547741</c:v>
+                  <c:v>308.7848164831786</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1720249779519806</c:v>
+                  <c:v>306.0693674268311</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1799890973016093</c:v>
+                  <c:v>321.9070476120306</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1886737798304902</c:v>
+                  <c:v>339.1709495925915</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1909871668796681</c:v>
+                  <c:v>343.7684499703194</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1935660245738335</c:v>
+                  <c:v>348.8929467639501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,244 +3012,244 @@
                   <c:v>0.004332066544257551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.493703792871985</c:v>
+                  <c:v>0.3301233089658355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.31071779188231</c:v>
+                  <c:v>0.5563925904181968</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.54139019895037</c:v>
+                  <c:v>0.7783611942456812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.10023216165239</c:v>
+                  <c:v>1.13755409825772</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.6523031589841</c:v>
+                  <c:v>1.361461438319932</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.47007340373095</c:v>
+                  <c:v>1.627206135675213</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.73812144560338</c:v>
+                  <c:v>1.653483336215814</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.53345703425147</c:v>
+                  <c:v>1.732460876473283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.83943295442138</c:v>
+                  <c:v>1.865400492403566</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.91949015548252</c:v>
+                  <c:v>1.978374328137377</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.2537513336339</c:v>
+                  <c:v>2.121690250839361</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.17940531545533</c:v>
+                  <c:v>2.223532477011588</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.33098929376656</c:v>
+                  <c:v>2.467813151482797</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.40192653755753</c:v>
+                  <c:v>2.834498762599196</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.65721202867301</c:v>
+                  <c:v>2.865922363592603</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.13682347280955</c:v>
+                  <c:v>3.17855071134754</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.65051006198087</c:v>
+                  <c:v>3.375929386601101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.97315227254633</c:v>
+                  <c:v>3.552398719741589</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.31890246523696</c:v>
+                  <c:v>3.874437425728722</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.2072100197113</c:v>
+                  <c:v>4.141984895719283</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47.06207174217398</c:v>
+                  <c:v>4.411904436117737</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.30319742101341</c:v>
+                  <c:v>4.596401993580997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49.30505437662296</c:v>
+                  <c:v>4.747583766726706</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.45746063256392</c:v>
+                  <c:v>4.923952181735451</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.80409116667811</c:v>
+                  <c:v>5.133364314029542</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>51.97404454937362</c:v>
+                  <c:v>5.160046087046929</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52.52685535377153</c:v>
+                  <c:v>5.247224159990942</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53.05907099834283</c:v>
+                  <c:v>5.331716024318105</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>54.54206526478647</c:v>
+                  <c:v>5.570038181683046</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>56.11590845673281</c:v>
+                  <c:v>5.827573459711637</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>57.26504835711526</c:v>
+                  <c:v>6.01858447037165</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>59.36697479009287</c:v>
+                  <c:v>6.374388160397125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.57659312821564</c:v>
+                  <c:v>6.933481719474628</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>63.56793831107323</c:v>
+                  <c:v>7.109969622287892</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.92969127585178</c:v>
+                  <c:v>7.537555856411771</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>68.12737747392521</c:v>
+                  <c:v>7.944346933508662</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>70.00363453728131</c:v>
+                  <c:v>8.298343144034718</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72.02070925665933</c:v>
+                  <c:v>8.685703303324082</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>76.0136371487143</c:v>
+                  <c:v>9.472928928831053</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77.15742150158982</c:v>
+                  <c:v>9.70335677000854</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>77.75281488382124</c:v>
+                  <c:v>9.824162945181172</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>80.29990606591842</c:v>
+                  <c:v>10.34754264057487</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>81.88444948145973</c:v>
+                  <c:v>10.6784594714326</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>84.70393566708749</c:v>
+                  <c:v>11.27723570704946</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86.10827610305275</c:v>
+                  <c:v>11.58017564361414</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>87.53950440557034</c:v>
+                  <c:v>11.89209449552141</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>89.22785655577026</c:v>
+                  <c:v>12.26413873180357</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>93.28208179892086</c:v>
+                  <c:v>13.17534303764033</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>96.46930850132142</c:v>
+                  <c:v>13.90904342430305</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>102.5720414729492</c:v>
+                  <c:v>15.35544908139182</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>106.7789426707088</c:v>
+                  <c:v>16.38351143941803</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>111.5946031921075</c:v>
+                  <c:v>17.59051829204908</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>115.3278557764988</c:v>
+                  <c:v>18.54788343892673</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>126.2224872586627</c:v>
+                  <c:v>21.44616820593038</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>129.1984272943809</c:v>
+                  <c:v>22.26407962087181</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>132.6625710219365</c:v>
+                  <c:v>23.22992465466524</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>136.3851050796667</c:v>
+                  <c:v>24.28402498214029</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>143.6334771681825</c:v>
+                  <c:v>26.38357359784852</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>150.8271741431847</c:v>
+                  <c:v>28.52694633169696</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>152.3684794317722</c:v>
+                  <c:v>28.99371454769854</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>154.8423999796061</c:v>
+                  <c:v>29.74837577939495</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>158.0521474679834</c:v>
+                  <c:v>30.73741331776131</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>158.8960719164999</c:v>
+                  <c:v>30.99929685196049</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>160.1575213733125</c:v>
+                  <c:v>31.39216217509951</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>161.2127817593135</c:v>
+                  <c:v>31.722110037105</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>162.348120535013</c:v>
+                  <c:v>32.07840943517965</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>165.3984887440804</c:v>
+                  <c:v>33.04238482830942</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>167.3302733322192</c:v>
+                  <c:v>33.65786150253044</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>168.8059018296464</c:v>
+                  <c:v>34.13058873221078</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>170.4434594715728</c:v>
+                  <c:v>34.65779139913172</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>174.4485251680217</c:v>
+                  <c:v>35.95860546290609</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>177.461294951975</c:v>
+                  <c:v>36.9476637601559</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>180.1520151038599</c:v>
+                  <c:v>37.83853431545938</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>182.530202792901</c:v>
+                  <c:v>38.63177982243621</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>185.416465631561</c:v>
+                  <c:v>39.60178488165133</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>187.8398735820485</c:v>
+                  <c:v>40.42234169886481</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>189.2245573394096</c:v>
+                  <c:v>40.89366894452792</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>190.2172267531603</c:v>
+                  <c:v>41.23266163912217</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>192.9713282318071</c:v>
+                  <c:v>42.17795904558267</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>194.6535571070633</c:v>
+                  <c:v>42.75878742143831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6456,13 +6456,13 @@
         <v>-1.728575548181971</v>
       </c>
       <c r="S3">
-        <v>24.07841241934235</v>
+        <v>22.61332663615532</v>
       </c>
       <c r="T3">
         <v>0.004332066544257551</v>
       </c>
       <c r="V3">
-        <v>20.9937438043972</v>
+        <v>19.52865802121017</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -6515,13 +6515,13 @@
         <v>-2.334693523567626</v>
       </c>
       <c r="S4">
-        <v>24.07841241934235</v>
+        <v>22.61332663615532</v>
       </c>
       <c r="T4">
         <v>0.004332066544257551</v>
       </c>
       <c r="V4">
-        <v>20.9937438043972</v>
+        <v>19.52865802121017</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -6580,7 +6580,7 @@
         <v>0.004332066544257551</v>
       </c>
       <c r="V5">
-        <v>3.551297289366914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7.493703792871985</v>
+        <v>0.3301233089658355</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>11.31071779188231</v>
+        <v>0.5563925904181968</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>14.54139019895037</v>
+        <v>0.7783611942456812</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>19.10023216165239</v>
+        <v>1.13755409825772</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -6987,13 +6987,13 @@
         <v>-7.667914792991539</v>
       </c>
       <c r="S12">
-        <v>22.25585392237125</v>
+        <v>20.83179054111346</v>
       </c>
       <c r="T12">
-        <v>21.6523031589841</v>
+        <v>1.361461438319932</v>
       </c>
       <c r="V12">
-        <v>0.02764687145656831</v>
+        <v>17.93395095833219</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -7046,13 +7046,13 @@
         <v>-8.347291302297853</v>
       </c>
       <c r="S13">
-        <v>32.41010840549592</v>
+        <v>30.75749164206095</v>
       </c>
       <c r="T13">
-        <v>24.47007340373095</v>
+        <v>1.627206135675213</v>
       </c>
       <c r="V13">
-        <v>0.03208402366564717</v>
+        <v>26.81799763400202</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -7105,13 +7105,13 @@
         <v>-9.072165216881208</v>
       </c>
       <c r="S14">
-        <v>61.48425585717768</v>
+        <v>59.17723411058584</v>
       </c>
       <c r="T14">
-        <v>24.73812144560338</v>
+        <v>1.653483336215814</v>
       </c>
       <c r="V14">
-        <v>0.04478869024719778</v>
+        <v>52.24511691129529</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -7164,13 +7164,13 @@
         <v>-9.782387424680429</v>
       </c>
       <c r="S15">
-        <v>73.20070333770614</v>
+        <v>70.62996615014065</v>
       </c>
       <c r="T15">
-        <v>25.53345703425147</v>
+        <v>1.732460876473283</v>
       </c>
       <c r="V15">
-        <v>0.04990848125767339</v>
+        <v>62.48763072286258</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -7223,13 +7223,13 @@
         <v>-10.59517157996858</v>
       </c>
       <c r="S16">
-        <v>78.92874432818671</v>
+        <v>76.22907959170075</v>
       </c>
       <c r="T16">
-        <v>26.83943295442138</v>
+        <v>1.865400492403566</v>
       </c>
       <c r="V16">
-        <v>0.05241149019612813</v>
+        <v>67.49419631786115</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -7282,13 +7282,13 @@
         <v>-11.68248245184361</v>
       </c>
       <c r="S17">
-        <v>82.57386132212891</v>
+        <v>79.79215178178448</v>
       </c>
       <c r="T17">
-        <v>27.91949015548252</v>
+        <v>1.978374328137377</v>
       </c>
       <c r="V17">
-        <v>0.05400431406605386</v>
+        <v>70.67988979467106</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -7341,13 +7341,13 @@
         <v>-12.89780297246421</v>
       </c>
       <c r="S18">
-        <v>95.33177080092656</v>
+        <v>92.26290444707747</v>
       </c>
       <c r="T18">
-        <v>29.2537513336339</v>
+        <v>2.121690250839361</v>
       </c>
       <c r="V18">
-        <v>0.05957919761079399</v>
+        <v>81.82796224664214</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -7400,13 +7400,13 @@
         <v>-13.70596027297842</v>
       </c>
       <c r="S19">
-        <v>79.0155328280425</v>
+        <v>76.31391464384562</v>
       </c>
       <c r="T19">
-        <v>30.17940531545533</v>
+        <v>2.223532477011588</v>
       </c>
       <c r="V19">
-        <v>0.05244941457398351</v>
+        <v>67.57004889959464</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -7441,13 +7441,13 @@
         <v>18.1368</v>
       </c>
       <c r="S20">
-        <v>103.9238322866474</v>
+        <v>100.6615746094177</v>
       </c>
       <c r="T20">
-        <v>32.33098929376656</v>
+        <v>2.467813151482797</v>
       </c>
       <c r="V20">
-        <v>0.06333371101847608</v>
+        <v>89.33422196929045</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -7482,13 +7482,13 @@
         <v>18.0504</v>
       </c>
       <c r="S21">
-        <v>119.1118197614066</v>
+        <v>115.5077087347665</v>
       </c>
       <c r="T21">
-        <v>35.40192653755753</v>
+        <v>2.834498762599196</v>
       </c>
       <c r="V21">
-        <v>0.06997047714316672</v>
+        <v>102.599661882704</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -7523,13 +7523,13 @@
         <v>18.0936</v>
       </c>
       <c r="S22">
-        <v>118.7646657619835</v>
+        <v>115.1683685261871</v>
       </c>
       <c r="T22">
-        <v>35.65721202867301</v>
+        <v>2.865922363592603</v>
       </c>
       <c r="V22">
-        <v>0.0698187796317452</v>
+        <v>102.2964974895038</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -7564,13 +7564,13 @@
         <v>18.252</v>
       </c>
       <c r="S23">
-        <v>126.2284767495794</v>
+        <v>122.4641830106442</v>
       </c>
       <c r="T23">
-        <v>38.13682347280955</v>
+        <v>3.17855071134754</v>
       </c>
       <c r="V23">
-        <v>0.07308027612730744</v>
+        <v>108.8140611711325</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -7605,13 +7605,13 @@
         <v>18.1944</v>
       </c>
       <c r="S24">
-        <v>114.5988177689067</v>
+        <v>111.0962860232343</v>
       </c>
       <c r="T24">
-        <v>39.65051006198087</v>
+        <v>3.375929386601101</v>
       </c>
       <c r="V24">
-        <v>0.06799840949468722</v>
+        <v>98.65835814498939</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -7646,13 +7646,13 @@
         <v>18.0252</v>
       </c>
       <c r="S25">
-        <v>128.224612246262</v>
+        <v>124.4153892099758</v>
       </c>
       <c r="T25">
-        <v>40.97315227254633</v>
+        <v>3.552398719741589</v>
       </c>
       <c r="V25">
-        <v>0.07395253681798107</v>
+        <v>110.5569631674045</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -7687,13 +7687,13 @@
         <v>18.3564</v>
       </c>
       <c r="S26">
-        <v>121.9758402566469</v>
+        <v>118.3072654555465</v>
       </c>
       <c r="T26">
-        <v>43.31890246523696</v>
+        <v>3.874437425728722</v>
       </c>
       <c r="V26">
-        <v>0.07122198161239408</v>
+        <v>105.1006866159947</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -7728,13 +7728,13 @@
         <v>18.6552</v>
       </c>
       <c r="S27">
-        <v>150.1821027097709</v>
+        <v>145.8786574026229</v>
       </c>
       <c r="T27">
-        <v>45.2072100197113</v>
+        <v>4.141984895719283</v>
       </c>
       <c r="V27">
-        <v>0.08354740441539092</v>
+        <v>129.7242236006746</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -7769,13 +7769,13 @@
         <v>18.2844</v>
       </c>
       <c r="S28">
-        <v>163.3739546878474</v>
+        <v>158.7735853286402</v>
       </c>
       <c r="T28">
-        <v>47.06207174217398</v>
+        <v>4.411904436117737</v>
       </c>
       <c r="V28">
-        <v>0.0893119098494079</v>
+        <v>141.2356222684451</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -7810,13 +7810,13 @@
         <v>18.2736</v>
       </c>
       <c r="S29">
-        <v>173.181055171549</v>
+        <v>168.3599462210083</v>
       </c>
       <c r="T29">
-        <v>48.30319742101341</v>
+        <v>4.596401993580997</v>
       </c>
       <c r="V29">
-        <v>0.09359736454706528</v>
+        <v>149.7914393372484</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -7851,13 +7851,13 @@
         <v>18.288</v>
       </c>
       <c r="S30">
-        <v>167.7133796806357</v>
+        <v>163.0153379358827</v>
       </c>
       <c r="T30">
-        <v>49.30505437662296</v>
+        <v>4.747583766726706</v>
       </c>
       <c r="V30">
-        <v>0.09120812874217665</v>
+        <v>145.021592318761</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -7892,13 +7892,13 @@
         <v>18.684</v>
       </c>
       <c r="S31">
-        <v>192.9688331386638</v>
+        <v>187.7023381100342</v>
       </c>
       <c r="T31">
-        <v>50.45746063256392</v>
+        <v>4.923952181735451</v>
       </c>
       <c r="V31">
-        <v>0.1022441226980908</v>
+        <v>167.0493136222576</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -7933,13 +7933,13 @@
         <v>18.9036</v>
       </c>
       <c r="S32">
-        <v>197.7422006307309</v>
+        <v>192.3682659780009</v>
       </c>
       <c r="T32">
-        <v>51.80409116667811</v>
+        <v>5.133364314029542</v>
       </c>
       <c r="V32">
-        <v>0.1043299634801364</v>
+        <v>171.2113582546598</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -7974,13 +7974,13 @@
         <v>18.6984</v>
       </c>
       <c r="S33">
-        <v>211.6283606076535</v>
+        <v>205.941874321177</v>
       </c>
       <c r="T33">
-        <v>51.97404454937362</v>
+        <v>5.160046087046929</v>
       </c>
       <c r="V33">
-        <v>0.1103978639369964</v>
+        <v>183.3168280083806</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -8015,13 +8015,13 @@
         <v>18.522</v>
       </c>
       <c r="S34">
-        <v>211.1076296085189</v>
+        <v>205.4328640083079</v>
       </c>
       <c r="T34">
-        <v>52.52685535377153</v>
+        <v>5.247224159990942</v>
       </c>
       <c r="V34">
-        <v>0.1101703176698641</v>
+        <v>182.8629345763213</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -8056,13 +8056,13 @@
         <v>18.252</v>
       </c>
       <c r="S35">
-        <v>218.6582290959707</v>
+        <v>212.8135135449099</v>
       </c>
       <c r="T35">
-        <v>53.05907099834283</v>
+        <v>5.331716024318105</v>
       </c>
       <c r="V35">
-        <v>0.1134697385432817</v>
+        <v>189.4439189027933</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -8097,13 +8097,13 @@
         <v>18.1728</v>
       </c>
       <c r="S36">
-        <v>219.6129025943841</v>
+        <v>213.7466991185032</v>
       </c>
       <c r="T36">
-        <v>54.54206526478647</v>
+        <v>5.570038181683046</v>
       </c>
       <c r="V36">
-        <v>0.1138869066996909</v>
+        <v>190.2759254165302</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -8138,13 +8138,13 @@
         <v>18.2952</v>
       </c>
       <c r="S37">
-        <v>232.9783315721721</v>
+        <v>226.8112971488102</v>
       </c>
       <c r="T37">
-        <v>56.11590845673281</v>
+        <v>5.827573459711637</v>
       </c>
       <c r="V37">
-        <v>0.1197272608894186</v>
+        <v>201.922320306954</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -8179,13 +8179,13 @@
         <v>18.09</v>
       </c>
       <c r="S38">
-        <v>227.07671358198</v>
+        <v>221.0425136029603</v>
       </c>
       <c r="T38">
-        <v>57.26504835711526</v>
+        <v>6.01858447037165</v>
       </c>
       <c r="V38">
-        <v>0.1171484031952531</v>
+        <v>196.7801467258016</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -8220,13 +8220,13 @@
         <v>18.0072</v>
       </c>
       <c r="S39">
-        <v>254.4150910365464</v>
+        <v>247.7655550285882</v>
       </c>
       <c r="T39">
-        <v>59.36697479009287</v>
+        <v>6.374388160397125</v>
       </c>
       <c r="V39">
-        <v>0.1290945822196962</v>
+        <v>220.5953155901338</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -8261,13 +8261,13 @@
         <v>17.6652</v>
       </c>
       <c r="S40">
-        <v>269.9502325107286</v>
+        <v>262.9510293625165</v>
       </c>
       <c r="T40">
-        <v>62.57659312821564</v>
+        <v>6.933481719474628</v>
       </c>
       <c r="V40">
-        <v>0.1358830458558083</v>
+        <v>234.1224767247462</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -8302,13 +8302,13 @@
         <v>17.8488</v>
       </c>
       <c r="S41">
-        <v>287.8286634810164</v>
+        <v>280.4270501043556</v>
       </c>
       <c r="T41">
-        <v>63.56793831107323</v>
+        <v>7.109969622287892</v>
       </c>
       <c r="V41">
-        <v>0.1436954676940155</v>
+        <v>249.6847531214091</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -8343,13 +8343,13 @@
         <v>18.054</v>
       </c>
       <c r="S42">
-        <v>291.8209344743817</v>
+        <v>284.3294625030187</v>
       </c>
       <c r="T42">
-        <v>65.92969127585178</v>
+        <v>7.537555856411771</v>
       </c>
       <c r="V42">
-        <v>0.1454399890753628</v>
+        <v>253.1590506996703</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -8384,13 +8384,13 @@
         <v>18.0648</v>
       </c>
       <c r="S43">
-        <v>303.971324454189</v>
+        <v>296.2063698032978</v>
       </c>
       <c r="T43">
-        <v>68.12737747392521</v>
+        <v>7.944346933508662</v>
       </c>
       <c r="V43">
-        <v>0.1507494019751152</v>
+        <v>263.7312614919348</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -8425,13 +8425,13 @@
         <v>19.6884</v>
       </c>
       <c r="S44">
-        <v>290.7794724761125</v>
+        <v>283.3114418772805</v>
       </c>
       <c r="T44">
-        <v>70.00363453728131</v>
+        <v>8.298343144034718</v>
       </c>
       <c r="V44">
-        <v>0.1449848965410983</v>
+        <v>252.2527394379542</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -8466,13 +8466,13 @@
         <v>22.5504</v>
       </c>
       <c r="S45">
-        <v>301.1073039589488</v>
+        <v>293.4068130825177</v>
       </c>
       <c r="T45">
-        <v>72.02070925665933</v>
+        <v>8.685703303324082</v>
       </c>
       <c r="V45">
-        <v>0.1494978975058879</v>
+        <v>261.2394760964888</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -8507,13 +8507,13 @@
         <v>24.5196</v>
       </c>
       <c r="S46">
-        <v>304.318478453612</v>
+        <v>296.5457100118771</v>
       </c>
       <c r="T46">
-        <v>76.0136371487143</v>
+        <v>9.472928928831053</v>
       </c>
       <c r="V46">
-        <v>0.1509010994865367</v>
+        <v>264.0332862052482</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -8548,13 +8548,13 @@
         <v>26.1504</v>
       </c>
       <c r="S47">
-        <v>307.4428644484197</v>
+        <v>299.5997718890918</v>
       </c>
       <c r="T47">
-        <v>77.15742150158982</v>
+        <v>9.70335677000854</v>
       </c>
       <c r="V47">
-        <v>0.1522663770893302</v>
+        <v>266.7514124946192</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -8589,13 +8589,13 @@
         <v>25.2144</v>
       </c>
       <c r="S48">
-        <v>326.4495459168325</v>
+        <v>318.178648308814</v>
       </c>
       <c r="T48">
-        <v>77.75281488382124</v>
+        <v>9.824162945181172</v>
       </c>
       <c r="V48">
-        <v>0.1605718158396574</v>
+        <v>283.2829526959575</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -8630,13 +8630,13 @@
         <v>24.0444</v>
       </c>
       <c r="S49">
-        <v>333.3926259052938</v>
+        <v>324.965452480402</v>
       </c>
       <c r="T49">
-        <v>80.29990606591842</v>
+        <v>10.34754264057487</v>
       </c>
       <c r="V49">
-        <v>0.1636057660680874</v>
+        <v>289.3202746573862</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -8671,13 +8671,13 @@
         <v>25.074</v>
       </c>
       <c r="S50">
-        <v>355.7840588680815</v>
+        <v>346.8528959337734</v>
       </c>
       <c r="T50">
-        <v>81.88444948145973</v>
+        <v>10.6784594714326</v>
       </c>
       <c r="V50">
-        <v>0.1733902555547741</v>
+        <v>308.7848164831786</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -8712,13 +8712,13 @@
         <v>25.3476</v>
       </c>
       <c r="S51">
-        <v>352.659672873274</v>
+        <v>343.7988340565588</v>
       </c>
       <c r="T51">
-        <v>84.70393566708749</v>
+        <v>11.27723570704946</v>
       </c>
       <c r="V51">
-        <v>0.1720249779519806</v>
+        <v>306.0693674268311</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -8753,13 +8753,13 @@
         <v>25.0092</v>
       </c>
       <c r="S52">
-        <v>370.885257842985</v>
+        <v>361.6141950069775</v>
       </c>
       <c r="T52">
-        <v>86.10827610305275</v>
+        <v>11.58017564361414</v>
       </c>
       <c r="V52">
-        <v>0.1799890973016093</v>
+        <v>321.9070476120306</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -8794,13 +8794,13 @@
         <v>24.8508</v>
       </c>
       <c r="S53">
-        <v>390.7598243099554</v>
+        <v>381.0414219481481</v>
       </c>
       <c r="T53">
-        <v>87.53950440557034</v>
+        <v>11.89209449552141</v>
       </c>
       <c r="V53">
-        <v>0.1886737798304902</v>
+        <v>339.1709495925915</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -8835,13 +8835,13 @@
         <v>24.7644</v>
       </c>
       <c r="S54">
-        <v>396.0539228011572</v>
+        <v>386.2163601289841</v>
       </c>
       <c r="T54">
-        <v>89.22785655577026</v>
+        <v>12.26413873180357</v>
       </c>
       <c r="V54">
-        <v>0.1909871668796681</v>
+        <v>343.7684499703194</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -8876,13 +8876,13 @@
         <v>24.7032</v>
       </c>
       <c r="S55">
-        <v>401.9555407913493</v>
+        <v>391.9851436748339</v>
       </c>
       <c r="T55">
-        <v>93.28208179892086</v>
+        <v>13.17534303764033</v>
       </c>
       <c r="V55">
-        <v>0.1935660245738335</v>
+        <v>348.8929467639501</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -8908,7 +8908,7 @@
         <v>24.9444</v>
       </c>
       <c r="T56">
-        <v>96.46930850132142</v>
+        <v>13.90904342430305</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -8934,7 +8934,7 @@
         <v>25.1316</v>
       </c>
       <c r="T57">
-        <v>102.5720414729492</v>
+        <v>15.35544908139182</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -8960,7 +8960,7 @@
         <v>25.1316</v>
       </c>
       <c r="T58">
-        <v>106.7789426707088</v>
+        <v>16.38351143941803</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -8986,7 +8986,7 @@
         <v>25.308</v>
       </c>
       <c r="T59">
-        <v>111.5946031921075</v>
+        <v>17.59051829204908</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -9012,7 +9012,7 @@
         <v>25.3404</v>
       </c>
       <c r="T60">
-        <v>115.3278557764988</v>
+        <v>18.54788343892673</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -9038,7 +9038,7 @@
         <v>25.0524</v>
       </c>
       <c r="T61">
-        <v>126.2224872586627</v>
+        <v>21.44616820593038</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -9064,7 +9064,7 @@
         <v>25.1748</v>
       </c>
       <c r="T62">
-        <v>129.1984272943809</v>
+        <v>22.26407962087181</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -9090,7 +9090,7 @@
         <v>25.128</v>
       </c>
       <c r="T63">
-        <v>132.6625710219365</v>
+        <v>23.22992465466524</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -9116,7 +9116,7 @@
         <v>24.8832</v>
       </c>
       <c r="T64">
-        <v>136.3851050796667</v>
+        <v>24.28402498214029</v>
       </c>
     </row>
     <row r="65" spans="4:20">
@@ -9142,7 +9142,7 @@
         <v>24.7932</v>
       </c>
       <c r="T65">
-        <v>143.6334771681825</v>
+        <v>26.38357359784852</v>
       </c>
     </row>
     <row r="66" spans="4:20">
@@ -9168,7 +9168,7 @@
         <v>24.9264</v>
       </c>
       <c r="T66">
-        <v>150.8271741431847</v>
+        <v>28.52694633169696</v>
       </c>
     </row>
     <row r="67" spans="4:20">
@@ -9194,7 +9194,7 @@
         <v>25.488</v>
       </c>
       <c r="T67">
-        <v>152.3684794317722</v>
+        <v>28.99371454769854</v>
       </c>
     </row>
     <row r="68" spans="4:20">
@@ -9220,7 +9220,7 @@
         <v>25.326</v>
       </c>
       <c r="T68">
-        <v>154.8423999796061</v>
+        <v>29.74837577939495</v>
       </c>
     </row>
     <row r="69" spans="4:20">
@@ -9246,7 +9246,7 @@
         <v>25.3872</v>
       </c>
       <c r="T69">
-        <v>158.0521474679834</v>
+        <v>30.73741331776131</v>
       </c>
     </row>
     <row r="70" spans="4:20">
@@ -9272,7 +9272,7 @@
         <v>25.4628</v>
       </c>
       <c r="T70">
-        <v>158.8960719164999</v>
+        <v>30.99929685196049</v>
       </c>
     </row>
     <row r="71" spans="4:20">
@@ -9298,7 +9298,7 @@
         <v>25.5312</v>
       </c>
       <c r="T71">
-        <v>160.1575213733125</v>
+        <v>31.39216217509951</v>
       </c>
     </row>
     <row r="72" spans="4:20">
@@ -9324,7 +9324,7 @@
         <v>25.5276</v>
       </c>
       <c r="T72">
-        <v>161.2127817593135</v>
+        <v>31.722110037105</v>
       </c>
     </row>
     <row r="73" spans="4:20">
@@ -9350,7 +9350,7 @@
         <v>25.2252</v>
       </c>
       <c r="T73">
-        <v>162.348120535013</v>
+        <v>32.07840943517965</v>
       </c>
     </row>
     <row r="74" spans="4:20">
@@ -9376,7 +9376,7 @@
         <v>25.038</v>
       </c>
       <c r="T74">
-        <v>165.3984887440804</v>
+        <v>33.04238482830942</v>
       </c>
     </row>
     <row r="75" spans="4:20">
@@ -9402,7 +9402,7 @@
         <v>25.1244</v>
       </c>
       <c r="T75">
-        <v>167.3302733322192</v>
+        <v>33.65786150253044</v>
       </c>
     </row>
     <row r="76" spans="4:20">
@@ -9428,7 +9428,7 @@
         <v>24.7212</v>
       </c>
       <c r="T76">
-        <v>168.8059018296464</v>
+        <v>34.13058873221078</v>
       </c>
     </row>
     <row r="77" spans="4:20">
@@ -9454,7 +9454,7 @@
         <v>24.6456</v>
       </c>
       <c r="T77">
-        <v>170.4434594715728</v>
+        <v>34.65779139913172</v>
       </c>
     </row>
     <row r="78" spans="4:20">
@@ -9480,7 +9480,7 @@
         <v>24.5592</v>
       </c>
       <c r="T78">
-        <v>174.4485251680217</v>
+        <v>35.95860546290609</v>
       </c>
     </row>
     <row r="79" spans="4:20">
@@ -9506,7 +9506,7 @@
         <v>24.4728</v>
       </c>
       <c r="T79">
-        <v>177.461294951975</v>
+        <v>36.9476637601559</v>
       </c>
     </row>
     <row r="80" spans="4:20">
@@ -9532,7 +9532,7 @@
         <v>24.4044</v>
       </c>
       <c r="T80">
-        <v>180.1520151038599</v>
+        <v>37.83853431545938</v>
       </c>
     </row>
     <row r="81" spans="4:20">
@@ -9558,7 +9558,7 @@
         <v>24.7572</v>
       </c>
       <c r="T81">
-        <v>182.530202792901</v>
+        <v>38.63177982243621</v>
       </c>
     </row>
     <row r="82" spans="4:20">
@@ -9584,7 +9584,7 @@
         <v>27.288</v>
       </c>
       <c r="T82">
-        <v>185.416465631561</v>
+        <v>39.60178488165133</v>
       </c>
     </row>
     <row r="83" spans="4:20">
@@ -9610,7 +9610,7 @@
         <v>29.4804</v>
       </c>
       <c r="T83">
-        <v>187.8398735820485</v>
+        <v>40.42234169886481</v>
       </c>
     </row>
     <row r="84" spans="4:20">
@@ -9636,7 +9636,7 @@
         <v>30.672</v>
       </c>
       <c r="T84">
-        <v>189.2245573394096</v>
+        <v>40.89366894452792</v>
       </c>
     </row>
     <row r="85" spans="4:20">
@@ -9662,7 +9662,7 @@
         <v>32.24160000000001</v>
       </c>
       <c r="T85">
-        <v>190.2172267531603</v>
+        <v>41.23266163912217</v>
       </c>
     </row>
     <row r="86" spans="4:20">
@@ -9688,7 +9688,7 @@
         <v>32.7312</v>
       </c>
       <c r="T86">
-        <v>192.9713282318071</v>
+        <v>42.17795904558267</v>
       </c>
     </row>
     <row r="87" spans="4:20">
@@ -9714,7 +9714,7 @@
         <v>32.9184</v>
       </c>
       <c r="T87">
-        <v>194.6535571070633</v>
+        <v>42.75878742143831</v>
       </c>
     </row>
     <row r="88" spans="4:20">

--- a/KickR.xlsx
+++ b/KickR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Tested with highest gradient (without slip)</t>
   </si>
@@ -32,19 +32,16 @@
     <t>Tested with lowest gradient (without slip)</t>
   </si>
   <si>
-    <t>Tested with 0 W program - constant velocities (without slip)</t>
+    <t>Tested with 0W Power, combined with other files</t>
   </si>
   <si>
-    <t>Time [s]</t>
+    <t>Upper Limit [W]</t>
   </si>
   <si>
-    <t>Brake Power Trainer Upper Limit [W]</t>
+    <t>Lower Limit [W]</t>
   </si>
   <si>
-    <t>Brake Power Trainer Lower Limit [W]</t>
-  </si>
-  <si>
-    <t>Brake Power Trainer No Internal Friction Higher Limit [W]</t>
+    <t>Brake Limit [W]</t>
   </si>
   <si>
     <t>Simulated Mass:</t>
@@ -1080,7 +1077,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$S$3:$S$56</c:f>
+              <c:f>Data!$I$3:$I$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -1434,7 +1431,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$V$3:$V$56</c:f>
+              <c:f>Data!$K$3:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
@@ -1620,7 +1617,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$D$3:$D$88</c:f>
+              <c:f>Data!$E$3:$E$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -1884,7 +1881,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$E$3:$E$88</c:f>
+              <c:f>Data!$F$3:$F$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -2165,7 +2162,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$D$3:$D$88</c:f>
+              <c:f>Data!$E$3:$E$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -2429,7 +2426,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$F$3:$F$88</c:f>
+              <c:f>Data!$G$3:$G$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -2710,7 +2707,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$D$3:$D$88</c:f>
+              <c:f>Data!$E$3:$E$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -2974,7 +2971,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$T$3:$T$88</c:f>
+              <c:f>Data!$J$3:$J$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
@@ -3647,13 +3644,13 @@
   <sheetData>
     <row r="2" spans="20:25">
       <c r="T2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" t="s">
         <v>11</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z87"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3673,18 +3670,18 @@
     <col min="1" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3694,38 +3691,26 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2.7</v>
       </c>
@@ -3735,44 +3720,26 @@
       <c r="C3">
         <v>24.04996913595082</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.004332066544257551</v>
       </c>
-      <c r="G3">
-        <v>209.25</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
-        <v>4.757500212530329e-24</v>
+        <v>23.4136015359869</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.004332066544257551</v>
       </c>
       <c r="K3">
-        <v>210.75</v>
-      </c>
-      <c r="S3">
-        <v>23.4136015359869</v>
-      </c>
-      <c r="T3">
-        <v>0.004332066544257551</v>
-      </c>
-      <c r="V3">
         <v>16.97232055506657</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2.7</v>
       </c>
@@ -3782,44 +3749,26 @@
       <c r="C4">
         <v>24.04996913595082</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.004332066544257551</v>
       </c>
-      <c r="G4">
-        <v>211.25</v>
-      </c>
-      <c r="H4">
-        <v>77.44</v>
-      </c>
       <c r="I4">
-        <v>4.757500212530329e-24</v>
+        <v>23.4136015359869</v>
       </c>
       <c r="J4">
-        <v>32.460624</v>
+        <v>0.004332066544257551</v>
       </c>
       <c r="K4">
-        <v>212.75</v>
-      </c>
-      <c r="S4">
-        <v>23.4136015359869</v>
-      </c>
-      <c r="T4">
-        <v>0.004332066544257551</v>
-      </c>
-      <c r="V4">
         <v>16.97232055506657</v>
       </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3829,32 +3778,26 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.004332066544257551</v>
       </c>
       <c r="I5">
-        <v>4.757500212530329e-24</v>
-      </c>
-      <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="J5">
         <v>0.004332066544257551</v>
       </c>
-      <c r="V5">
+      <c r="K5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3864,32 +3807,26 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.004332066544257551</v>
       </c>
       <c r="I6">
-        <v>4.757500212530329e-24</v>
-      </c>
-      <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="J6">
         <v>0.004332066544257551</v>
       </c>
-      <c r="V6">
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3899,32 +3836,26 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.004332066544257551</v>
       </c>
       <c r="I7">
-        <v>4.757500212530329e-24</v>
-      </c>
-      <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="J7">
         <v>0.004332066544257551</v>
       </c>
-      <c r="V7">
+      <c r="K7">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3934,32 +3865,26 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2.88</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>19</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7.354629513304169</v>
       </c>
       <c r="I8">
-        <v>6.87069971298168</v>
-      </c>
-      <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="J8">
         <v>5.887237868725332</v>
       </c>
-      <c r="V8">
+      <c r="K8">
         <v>0</v>
       </c>
-      <c r="Z8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3969,32 +3894,26 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>4.323600000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11.10193252968112</v>
       </c>
       <c r="I9">
-        <v>10.31463794411375</v>
-      </c>
-      <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="J9">
         <v>8.899010823257143</v>
       </c>
-      <c r="V9">
+      <c r="K9">
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4004,32 +3923,26 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5.5332</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>23</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>14.27419373933071</v>
       </c>
       <c r="I10">
-        <v>13.20033182356605</v>
-      </c>
-      <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="J10">
         <v>11.45496754218362</v>
       </c>
-      <c r="V10">
+      <c r="K10">
         <v>0</v>
       </c>
-      <c r="Z10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4039,32 +3952,26 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7.2216</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>18.75150340563609</v>
       </c>
       <c r="I11">
-        <v>17.22827953030156</v>
-      </c>
-      <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="J11">
         <v>15.07201885685466</v>
       </c>
-      <c r="V11">
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2.6244</v>
       </c>
@@ -4074,32 +3981,26 @@
       <c r="C12">
         <v>22.22820705091468</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>8.1576</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>21.25837526210826</v>
       </c>
       <c r="I12">
-        <v>19.46125693702061</v>
-      </c>
-      <c r="S12">
         <v>21.60965774374975</v>
       </c>
-      <c r="T12">
+      <c r="J12">
         <v>17.10198842883871</v>
       </c>
-      <c r="V12">
+      <c r="K12">
         <v>15.3487326302952</v>
       </c>
-      <c r="Z12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>3.0456</v>
       </c>
@@ -4109,32 +4010,26 @@
       <c r="C13">
         <v>32.37802438183027</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>9.1836</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>18</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>24.02660029475907</v>
       </c>
       <c r="I13">
-        <v>21.90894370977033</v>
-      </c>
-      <c r="S13">
         <v>31.66020172907097</v>
       </c>
-      <c r="T13">
+      <c r="J13">
         <v>19.34745518810831</v>
       </c>
-      <c r="V13">
+      <c r="K13">
         <v>24.39443678259285</v>
       </c>
-      <c r="Z13">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>4.251600000000001</v>
       </c>
@@ -4144,32 +4039,26 @@
       <c r="C14">
         <v>61.43946716693048</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>9.280800000000001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>19</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>24.2899545796961</v>
       </c>
       <c r="I14">
-        <v>22.14082982508346</v>
-      </c>
-      <c r="S14">
         <v>60.43740031952063</v>
       </c>
-      <c r="T14">
+      <c r="J14">
         <v>19.56128500504079</v>
       </c>
-      <c r="V14">
+      <c r="K14">
         <v>50.29452986823143</v>
       </c>
-      <c r="Z14">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>4.7376</v>
       </c>
@@ -4179,32 +4068,26 @@
       <c r="C15">
         <v>73.15079485644847</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>9.568800000000001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>25.0713827403874</v>
       </c>
       <c r="I15">
-        <v>22.82789979638163</v>
-      </c>
-      <c r="S15">
         <v>72.03418184104511</v>
       </c>
-      <c r="T15">
+      <c r="J15">
         <v>20.19597400127422</v>
       </c>
-      <c r="V15">
+      <c r="K15">
         <v>60.73188081319025</v>
       </c>
-      <c r="Z15">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>4.9752</v>
       </c>
@@ -4214,32 +4097,26 @@
       <c r="C16">
         <v>78.87633283799059</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>10.0404</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>20</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>26.35458524727808</v>
       </c>
       <c r="I16">
-        <v>23.95297687438238</v>
-      </c>
-      <c r="S16">
         <v>77.70371947379041</v>
       </c>
-      <c r="T16">
+      <c r="J16">
         <v>21.23889112636511</v>
       </c>
-      <c r="V16">
+      <c r="K16">
         <v>65.83458571961457</v>
       </c>
-      <c r="Z16">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>5.1264</v>
       </c>
@@ -4249,32 +4126,26 @@
       <c r="C17">
         <v>82.51985700806286</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>10.4292</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>21</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>27.41586742059757</v>
       </c>
       <c r="I17">
-        <v>24.88052133563491</v>
-      </c>
-      <c r="S17">
         <v>81.3116070582647</v>
       </c>
-      <c r="T17">
+      <c r="J17">
         <v>22.10207542766646</v>
       </c>
-      <c r="V17">
+      <c r="K17">
         <v>69.08176156915731</v>
       </c>
-      <c r="Z17">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>5.655600000000001</v>
       </c>
@@ -4284,32 +4155,26 @@
       <c r="C18">
         <v>95.27219160331578</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>10.908</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>26</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>28.7270074997708</v>
       </c>
       <c r="I18">
-        <v>26.02277516291811</v>
-      </c>
-      <c r="S18">
         <v>93.93921360392469</v>
       </c>
-      <c r="T18">
+      <c r="J18">
         <v>23.16926164592845</v>
       </c>
-      <c r="V18">
+      <c r="K18">
         <v>80.44687704255691</v>
       </c>
-      <c r="Z18">
-        <v>32.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>4.978800000000001</v>
       </c>
@@ -4319,32 +4184,26 @@
       <c r="C19">
         <v>78.96308341346851</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>11.2392</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>25</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>29.63666793944194</v>
       </c>
       <c r="I19">
-        <v>26.81290562991101</v>
-      </c>
-      <c r="S19">
         <v>77.78962155913504</v>
       </c>
-      <c r="T19">
+      <c r="J19">
         <v>23.91017204647303</v>
       </c>
-      <c r="V19">
+      <c r="K19">
         <v>65.91189943031796</v>
       </c>
-      <c r="Z19">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>6.012</v>
       </c>
@@ -4354,32 +4213,26 @@
       <c r="C20">
         <v>103.860498575629</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>12.006</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>28</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>31.75122339081823</v>
       </c>
       <c r="I20">
-        <v>28.64222942849238</v>
-      </c>
-      <c r="S20">
         <v>102.4435200530426</v>
       </c>
-      <c r="T20">
+      <c r="J20">
         <v>25.6340344724802</v>
       </c>
-      <c r="V20">
+      <c r="K20">
         <v>88.10093440219337</v>
       </c>
-      <c r="Z20">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>6.642</v>
       </c>
@@ -4389,32 +4242,26 @@
       <c r="C21">
         <v>119.0418492842634</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>13.0932</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>28</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>34.76966009407235</v>
       </c>
       <c r="I21">
-        <v>31.23591857014296</v>
-      </c>
-      <c r="S21">
         <v>117.4763849883522</v>
       </c>
-      <c r="T21">
+      <c r="J21">
         <v>28.09853082990581</v>
       </c>
-      <c r="V21">
+      <c r="K21">
         <v>101.6308337752882</v>
       </c>
-      <c r="Z21">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>6.6276</v>
       </c>
@@ -4424,32 +4271,26 @@
       <c r="C22">
         <v>118.6948469823517</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>13.1832</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>52</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>35.02059951395133</v>
       </c>
       <c r="I22">
-        <v>31.45062793617364</v>
-      </c>
-      <c r="S22">
         <v>117.1327766469737</v>
       </c>
-      <c r="T22">
+      <c r="J22">
         <v>28.30361426089171</v>
       </c>
-      <c r="V22">
+      <c r="K22">
         <v>101.3215789324746</v>
       </c>
-      <c r="Z22">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>6.9372</v>
       </c>
@@ -4459,32 +4300,26 @@
       <c r="C23">
         <v>126.1553964734521</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>14.0544</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>44</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>37.45814098851861</v>
       </c>
       <c r="I23">
-        <v>33.5290145993506</v>
-      </c>
-      <c r="S23">
         <v>124.5203559866115</v>
       </c>
-      <c r="T23">
+      <c r="J23">
         <v>30.29726976297388</v>
       </c>
-      <c r="V23">
+      <c r="K23">
         <v>107.9705580529669</v>
       </c>
-      <c r="Z23">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>6.454800000000001</v>
       </c>
@@ -4494,32 +4329,26 @@
       <c r="C24">
         <v>114.530819359412</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>14.5836</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>34</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>38.94627267881934</v>
       </c>
       <c r="I24">
-        <v>34.79150567161098</v>
-      </c>
-      <c r="S24">
         <v>113.0094765504316</v>
       </c>
-      <c r="T24">
+      <c r="J24">
         <v>31.51576823858326</v>
       </c>
-      <c r="V24">
+      <c r="K24">
         <v>97.61052081871142</v>
       </c>
-      <c r="Z24">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>7.02</v>
       </c>
@@ -4529,32 +4358,26 @@
       <c r="C25">
         <v>128.1506597094441</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>15.0444</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>35</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>40.24666300465395</v>
       </c>
       <c r="I25">
-        <v>35.89081762568805</v>
-      </c>
-      <c r="S25">
         <v>126.4961039495379</v>
       </c>
-      <c r="T25">
+      <c r="J25">
         <v>32.58137590128526</v>
       </c>
-      <c r="V25">
+      <c r="K25">
         <v>109.748773399145</v>
       </c>
-      <c r="Z25">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>6.760800000000001</v>
       </c>
@@ -4564,32 +4387,26 @@
       <c r="C26">
         <v>121.9046182750345</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>15.858</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>39</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>42.55312471336668</v>
       </c>
       <c r="I26">
-        <v>37.83179029460538</v>
-      </c>
-      <c r="S26">
         <v>120.3111538047248</v>
       </c>
-      <c r="T26">
+      <c r="J26">
         <v>34.47329947040446</v>
       </c>
-      <c r="V26">
+      <c r="K26">
         <v>104.1821862285003</v>
       </c>
-      <c r="Z26">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>7.930800000000001</v>
       </c>
@@ -4599,32 +4416,26 @@
       <c r="C27">
         <v>150.0985553053555</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>16.5096</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>39</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>44.4099667120888</v>
       </c>
       <c r="I27">
-        <v>39.38628610466748</v>
-      </c>
-      <c r="S27">
         <v>148.2293315417282</v>
       </c>
-      <c r="T27">
+      <c r="J27">
         <v>35.99814410954061</v>
       </c>
-      <c r="V27">
+      <c r="K27">
         <v>129.3091422071049</v>
       </c>
-      <c r="Z27">
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>8.478</v>
       </c>
@@ -4634,32 +4445,26 @@
       <c r="C28">
         <v>163.284642777998</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>17.1468</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>40</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>46.23405825019709</v>
       </c>
       <c r="I28">
-        <v>40.90642841616467</v>
-      </c>
-      <c r="S28">
         <v>161.2864485141113</v>
       </c>
-      <c r="T28">
+      <c r="J28">
         <v>37.49757524628585</v>
       </c>
-      <c r="V28">
+      <c r="K28">
         <v>141.0608262340215</v>
       </c>
-      <c r="Z28">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>8.8848</v>
       </c>
@@ -4669,32 +4474,26 @@
       <c r="C29">
         <v>173.087457807002</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>17.5716</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>42</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>47.45467047280027</v>
       </c>
       <c r="I29">
-        <v>41.91985662382948</v>
-      </c>
-      <c r="S29">
         <v>170.9933841580541</v>
       </c>
-      <c r="T29">
+      <c r="J29">
         <v>38.50174720131365</v>
       </c>
-      <c r="V29">
+      <c r="K29">
         <v>149.7972755435056</v>
       </c>
-      <c r="Z29">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>8.657999999999999</v>
       </c>
@@ -4704,32 +4503,26 @@
       <c r="C30">
         <v>167.6221715518936</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>17.9136</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>42</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>48.44001235771115</v>
       </c>
       <c r="I30">
-        <v>42.73575221474606</v>
-      </c>
-      <c r="S30">
         <v>165.5815527813426</v>
       </c>
-      <c r="T30">
+      <c r="J30">
         <v>39.31283632843078</v>
       </c>
-      <c r="V30">
+      <c r="K30">
         <v>144.9265117691914</v>
       </c>
-      <c r="Z30">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>9.7056</v>
       </c>
@@ -4739,32 +4532,26 @@
       <c r="C31">
         <v>192.8665890159657</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>18.306</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>43</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>49.57346974306099</v>
       </c>
       <c r="I31">
-        <v>43.6718850506398</v>
-      </c>
-      <c r="S31">
         <v>190.5790596166287</v>
       </c>
-      <c r="T31">
+      <c r="J31">
         <v>40.24636160220676</v>
       </c>
-      <c r="V31">
+      <c r="K31">
         <v>167.4248015838805</v>
       </c>
-      <c r="Z31">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>9.903600000000001</v>
       </c>
@@ -4774,32 +4561,26 @@
       <c r="C32">
         <v>197.6378706672508</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>18.7632</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>44</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>50.89802223529379</v>
       </c>
       <c r="I32">
-        <v>44.76260863007565</v>
-      </c>
-      <c r="S32">
         <v>195.3036743105831</v>
       </c>
-      <c r="T32">
+      <c r="J32">
         <v>41.33796567086267</v>
       </c>
-      <c r="V32">
+      <c r="K32">
         <v>171.6770556725674</v>
       </c>
-      <c r="Z32">
-        <v>66.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>10.4796</v>
       </c>
@@ -4809,32 +4590,26 @@
       <c r="C33">
         <v>211.5179627437165</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>18.8208</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>44</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>51.06519413239794</v>
       </c>
       <c r="I33">
-        <v>44.90002262433527</v>
-      </c>
-      <c r="S33">
         <v>209.0480079657233</v>
       </c>
-      <c r="T33">
+      <c r="J33">
         <v>41.47578973507525</v>
       </c>
-      <c r="V33">
+      <c r="K33">
         <v>184.0472493851112</v>
       </c>
-      <c r="Z33">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>10.458</v>
       </c>
@@ -4844,32 +4619,26 @@
       <c r="C34">
         <v>210.9974592908491</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>19.008</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>45</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>51.60896510862395</v>
       </c>
       <c r="I34">
-        <v>45.34661810567908</v>
-      </c>
-      <c r="S34">
         <v>208.5325954536555</v>
       </c>
-      <c r="T34">
+      <c r="J34">
         <v>41.92418025440362</v>
       </c>
-      <c r="V34">
+      <c r="K34">
         <v>183.5833671208908</v>
       </c>
-      <c r="Z34">
-        <v>69.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>10.7712</v>
       </c>
@@ -4879,32 +4648,26 @@
       <c r="C35">
         <v>218.5447593574274</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>19.188</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>46</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>52.13248861072226</v>
       </c>
       <c r="I35">
-        <v>45.77603683774044</v>
-      </c>
-      <c r="S35">
         <v>216.006076878638</v>
       </c>
-      <c r="T35">
+      <c r="J35">
         <v>42.35599177871575</v>
       </c>
-      <c r="V35">
+      <c r="K35">
         <v>190.3096599520865</v>
       </c>
-      <c r="Z35">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>10.8108</v>
       </c>
@@ -4914,32 +4677,26 @@
       <c r="C36">
         <v>219.4990156876844</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>19.6884</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>57</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>53.59131872109099</v>
       </c>
       <c r="I36">
-        <v>46.96982091287101</v>
-      </c>
-      <c r="S36">
         <v>216.9509998174289</v>
       </c>
-      <c r="T36">
+      <c r="J36">
         <v>43.55986259083891</v>
       </c>
-      <c r="V36">
+      <c r="K36">
         <v>191.1601107698239</v>
       </c>
-      <c r="Z36">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>11.3652</v>
       </c>
@@ -4949,32 +4706,26 @@
       <c r="C37">
         <v>232.8586043112827</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>20.2176</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>49</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>55.13960701416674</v>
       </c>
       <c r="I37">
-        <v>48.2323119851314</v>
-      </c>
-      <c r="S37">
         <v>230.1799209605012</v>
       </c>
-      <c r="T37">
+      <c r="J37">
         <v>44.83851766922331</v>
       </c>
-      <c r="V37">
+      <c r="K37">
         <v>203.0664222181473</v>
       </c>
-      <c r="Z37">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>11.1204</v>
       </c>
@@ -4984,32 +4735,26 @@
       <c r="C38">
         <v>226.9595651787847</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>20.6028</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>69</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>56.270145729657</v>
       </c>
       <c r="I38">
-        <v>49.15126807174269</v>
-      </c>
-      <c r="S38">
         <v>224.3385791570666</v>
       </c>
-      <c r="T38">
+      <c r="J38">
         <v>45.77279275225115</v>
       </c>
-      <c r="V38">
+      <c r="K38">
         <v>197.8090898903161</v>
       </c>
-      <c r="Z38">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>12.2544</v>
       </c>
@@ -5019,32 +4764,26 @@
       <c r="C39">
         <v>254.2859964543267</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>21.3048</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>54</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>58.33817280698995</v>
       </c>
       <c r="I39">
-        <v>50.82600112678197</v>
-      </c>
-      <c r="S39">
         <v>251.3977360406238</v>
       </c>
-      <c r="T39">
+      <c r="J39">
         <v>47.48314311621801</v>
       </c>
-      <c r="V39">
+      <c r="K39">
         <v>222.1629087618868</v>
       </c>
-      <c r="Z39">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>12.8988</v>
       </c>
@@ -5054,32 +4793,26 @@
       <c r="C40">
         <v>269.8143494648728</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>22.3704</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>54</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>61.49633366167264</v>
       </c>
       <c r="I40">
-        <v>53.3681600205852</v>
-      </c>
-      <c r="S40">
         <v>266.7742093173118</v>
       </c>
-      <c r="T40">
+      <c r="J40">
         <v>50.09836906240652</v>
       </c>
-      <c r="V40">
+      <c r="K40">
         <v>236.0020629777952</v>
       </c>
-      <c r="Z40">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>13.6404</v>
       </c>
@@ -5089,32 +4822,26 @@
       <c r="C41">
         <v>287.6849680133224</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>22.698</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>75</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>62.47185914522939</v>
       </c>
       <c r="I41">
-        <v>54.14970211293686</v>
-      </c>
-      <c r="S41">
         <v>284.4700388983047</v>
       </c>
-      <c r="T41">
+      <c r="J41">
         <v>50.90697874639243</v>
       </c>
-      <c r="V41">
+      <c r="K41">
         <v>251.9286873826952</v>
       </c>
-      <c r="Z41">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>13.806</v>
       </c>
@@ -5124,32 +4851,26 @@
       <c r="C42">
         <v>291.6754944853063</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>23.4756</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>90</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>64.79606205452463</v>
       </c>
       <c r="I42">
-        <v>56.00479103544193</v>
-      </c>
-      <c r="S42">
         <v>288.4215348241575</v>
       </c>
-      <c r="T42">
+      <c r="J42">
         <v>52.83498591165138</v>
       </c>
-      <c r="V42">
+      <c r="K42">
         <v>255.4851180750516</v>
       </c>
-      <c r="Z42">
-        <v>88.01600000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>14.31</v>
       </c>
@@ -5159,32 +4880,26 @@
       <c r="C43">
         <v>303.8205750522139</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>24.1956</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>64</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>66.9589796827061</v>
       </c>
       <c r="I43">
-        <v>57.72246596368734</v>
-      </c>
-      <c r="S43">
         <v>300.4478267724051</v>
       </c>
-      <c r="T43">
+      <c r="J43">
         <v>54.63105562868815</v>
       </c>
-      <c r="V43">
+      <c r="K43">
         <v>266.3090375735274</v>
       </c>
-      <c r="Z43">
-        <v>90.51600000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>13.7628</v>
       </c>
@@ -5194,32 +4909,26 @@
       <c r="C44">
         <v>290.6344875795714</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>24.8076</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>62</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>68.80568346165404</v>
       </c>
       <c r="I44">
-        <v>59.18248965269595</v>
-      </c>
-      <c r="S44">
         <v>287.390709800022</v>
       </c>
-      <c r="T44">
+      <c r="J44">
         <v>56.16593868316309</v>
       </c>
-      <c r="V44">
+      <c r="K44">
         <v>254.5573535466108</v>
       </c>
-      <c r="Z44">
-        <v>93.01600000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>14.1912</v>
       </c>
@@ -5229,32 +4938,26 @@
       <c r="C45">
         <v>300.9578060614429</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>25.4628</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>82</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>70.79111878243037</v>
       </c>
       <c r="I45">
-        <v>60.74557383739927</v>
-      </c>
-      <c r="S45">
         <v>297.6130579560325</v>
       </c>
-      <c r="T45">
+      <c r="J45">
         <v>57.81754240479773</v>
       </c>
-      <c r="V45">
+      <c r="K45">
         <v>263.7576851203153</v>
       </c>
-      <c r="Z45">
-        <v>95.01600000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>14.3244</v>
       </c>
@@ -5264,32 +4967,26 @@
       <c r="C46">
         <v>304.1675773541255</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>26.7516</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>66</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>74.72181093437875</v>
       </c>
       <c r="I46">
-        <v>63.82021195895859</v>
-      </c>
-      <c r="S46">
         <v>300.7914351137836</v>
       </c>
-      <c r="T46">
+      <c r="J46">
         <v>61.09157679579708</v>
       </c>
-      <c r="V46">
+      <c r="K46">
         <v>266.618292416341</v>
       </c>
-      <c r="Z46">
-        <v>97.26600000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>14.454</v>
       </c>
@@ -5299,32 +4996,26 @@
       <c r="C47">
         <v>307.2905980713304</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>27.1188</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>66</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>75.84786331660938</v>
       </c>
       <c r="I47">
-        <v>64.69622617236374</v>
-      </c>
-      <c r="S47">
         <v>303.8839101861902</v>
       </c>
-      <c r="T47">
+      <c r="J47">
         <v>62.03053674334391</v>
       </c>
-      <c r="V47">
+      <c r="K47">
         <v>269.4015860016634</v>
       </c>
-      <c r="Z47">
-        <v>99.01600000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>15.2424</v>
       </c>
@@ -5334,32 +5025,26 @@
       <c r="C48">
         <v>326.2889741009928</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>27.3096</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>117</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>76.43404302781943</v>
       </c>
       <c r="I48">
-        <v>65.15141002834879</v>
-      </c>
-      <c r="S48">
         <v>322.6964668766632</v>
       </c>
-      <c r="T48">
+      <c r="J48">
         <v>62.51950175810061</v>
       </c>
-      <c r="V48">
+      <c r="K48">
         <v>286.3332886457076</v>
       </c>
-      <c r="Z48">
-        <v>101.016</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>15.5304</v>
       </c>
@@ -5369,32 +5054,26 @@
       <c r="C49">
         <v>333.2290201392257</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>28.1232</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>70</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>78.94184572593871</v>
       </c>
       <c r="I49">
-        <v>67.0923826972661</v>
-      </c>
-      <c r="S49">
         <v>329.5686337042333</v>
       </c>
-      <c r="T49">
+      <c r="J49">
         <v>64.61276631662636</v>
       </c>
-      <c r="V49">
+      <c r="K49">
         <v>292.5183855019795</v>
       </c>
-      <c r="Z49">
-        <v>103.016</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>16.4592</v>
       </c>
@@ -5404,32 +5083,26 @@
       <c r="C50">
         <v>355.6106686125268</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>28.6272</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>95</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>80.50205114255564</v>
       </c>
       <c r="I50">
-        <v>68.2947551470379</v>
-      </c>
-      <c r="S50">
         <v>351.7313717231467</v>
       </c>
-      <c r="T50">
+      <c r="J50">
         <v>65.916178195442</v>
       </c>
-      <c r="V50">
+      <c r="K50">
         <v>312.4653228634564</v>
       </c>
-      <c r="Z50">
-        <v>105.016</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>16.3296</v>
       </c>
@@ -5439,32 +5112,26 @@
       <c r="C51">
         <v>352.487647895322</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>29.52</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>90</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>83.27842430151738</v>
       </c>
       <c r="I51">
-        <v>70.42467205806221</v>
-      </c>
-      <c r="S51">
         <v>348.6388966507402</v>
       </c>
-      <c r="T51">
+      <c r="J51">
         <v>68.23765994458429</v>
       </c>
-      <c r="V51">
+      <c r="K51">
         <v>309.6820292781341</v>
       </c>
-      <c r="Z51">
-        <v>107.516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>17.0856</v>
       </c>
@@ -5474,32 +5141,26 @@
       <c r="C52">
         <v>370.7052687456834</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>29.9628</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>75</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>84.66138206699908</v>
       </c>
       <c r="I52">
-        <v>71.48104213893315</v>
-      </c>
-      <c r="S52">
         <v>366.6783345731117</v>
       </c>
-      <c r="T52">
+      <c r="J52">
         <v>69.39500624471201</v>
       </c>
-      <c r="V52">
+      <c r="K52">
         <v>325.9179085258479</v>
       </c>
-      <c r="Z52">
-        <v>109.516</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>17.91</v>
       </c>
@@ -5509,32 +5170,26 @@
       <c r="C53">
         <v>390.5711505301249</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>30.4128</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>77</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>86.0708800133342</v>
       </c>
       <c r="I53">
-        <v>72.55458896908654</v>
-      </c>
-      <c r="S53">
         <v>386.3499121170309</v>
       </c>
-      <c r="T53">
+      <c r="J53">
         <v>70.57522424658168</v>
       </c>
-      <c r="V53">
+      <c r="K53">
         <v>343.6227482769261</v>
       </c>
-      <c r="Z53">
-        <v>111.516</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>18.1296</v>
       </c>
@@ -5544,32 +5199,26 @@
       <c r="C54">
         <v>395.8629356342776</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>30.942</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>81</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>87.73367726466354</v>
       </c>
       <c r="I54">
-        <v>73.81708004134693</v>
-      </c>
-      <c r="S54">
         <v>391.5899393230532</v>
       </c>
-      <c r="T54">
+      <c r="J54">
         <v>71.96838828321967</v>
       </c>
-      <c r="V54">
+      <c r="K54">
         <v>348.3388846298334</v>
       </c>
-      <c r="Z54">
-        <v>113.516</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>18.3744</v>
       </c>
@@ -5579,669 +5228,471 @@
       <c r="C55">
         <v>401.7619747667755</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>32.2056</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>110</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>91.72688366765375</v>
       </c>
       <c r="I55">
-        <v>76.83159954041764</v>
-      </c>
-      <c r="S55">
         <v>397.4312811264877</v>
       </c>
-      <c r="T55">
+      <c r="J55">
         <v>75.3177766021509</v>
       </c>
-      <c r="V55">
+      <c r="K55">
         <v>353.5962169576646</v>
       </c>
-      <c r="Z55">
-        <v>115.516</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="D56">
+    </row>
+    <row r="56" spans="1:11">
+      <c r="E56">
         <v>33.192</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>150</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>94.86647742930235</v>
       </c>
-      <c r="I56">
-        <v>79.18481419211386</v>
-      </c>
-      <c r="T56">
+      <c r="J56">
         <v>77.95478872553126</v>
       </c>
-      <c r="Z56">
-        <v>117.516</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="D57">
+    </row>
+    <row r="57" spans="1:11">
+      <c r="E57">
         <v>35.064</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>136</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>100.878812119211</v>
       </c>
-      <c r="I57">
-        <v>83.65076900555195</v>
-      </c>
-      <c r="T57">
+      <c r="J57">
         <v>83.0133188464637</v>
       </c>
-      <c r="Z57">
-        <v>120.016</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="D58">
+    </row>
+    <row r="58" spans="1:11">
+      <c r="E58">
         <v>36.342</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>121</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>105.0239991054124</v>
       </c>
-      <c r="I58">
-        <v>86.69964200318756</v>
-      </c>
-      <c r="T58">
+      <c r="J58">
         <v>86.50735079038319</v>
       </c>
-      <c r="Z58">
-        <v>122.016</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="D59">
+    </row>
+    <row r="59" spans="1:11">
+      <c r="E59">
         <v>37.7928</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>103</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>109.7696009584789</v>
       </c>
-      <c r="I59">
-        <v>90.1607569836021</v>
-      </c>
-      <c r="T59">
+      <c r="J59">
         <v>90.51375410249308</v>
       </c>
-      <c r="Z59">
-        <v>124.516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
-      <c r="D60">
+    </row>
+    <row r="60" spans="1:11">
+      <c r="E60">
         <v>38.9088</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>108</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>113.4489622595376</v>
       </c>
-      <c r="I60">
-        <v>92.82315312238249</v>
-      </c>
-      <c r="T60">
+      <c r="J60">
         <v>93.62450114127753</v>
       </c>
-      <c r="Z60">
-        <v>126.516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
-      <c r="D61">
+    </row>
+    <row r="61" spans="1:11">
+      <c r="E61">
         <v>42.1236</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>163</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>124.1883520771339</v>
       </c>
-      <c r="I61">
-        <v>100.4925716769983</v>
-      </c>
-      <c r="T61">
+      <c r="J61">
         <v>102.7259150356127</v>
       </c>
-      <c r="Z61">
-        <v>130.516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
-      <c r="D62">
+    </row>
+    <row r="62" spans="1:11">
+      <c r="E62">
         <v>42.99120000000001</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>116</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>127.1223959861323</v>
       </c>
-      <c r="I62">
-        <v>102.562369965534</v>
-      </c>
-      <c r="T62">
+      <c r="J62">
         <v>105.2179072116817</v>
       </c>
-      <c r="Z62">
-        <v>132.516</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="D63">
+    </row>
+    <row r="63" spans="1:11">
+      <c r="E63">
         <v>43.9956</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>116</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>130.5380375586887</v>
       </c>
-      <c r="I63">
-        <v>104.9585264904364</v>
-      </c>
-      <c r="T63">
+      <c r="J63">
         <v>108.1217959481912</v>
       </c>
-      <c r="Z63">
-        <v>134.516</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
-      <c r="D64">
+    </row>
+    <row r="64" spans="1:11">
+      <c r="E64">
         <v>45.0684</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>118</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>134.2087664472798</v>
       </c>
-      <c r="I64">
-        <v>107.5178621335221</v>
-      </c>
-      <c r="T64">
+      <c r="J64">
         <v>111.2459214491767</v>
       </c>
-      <c r="Z64">
-        <v>136.5</v>
-      </c>
-    </row>
-    <row r="65" spans="4:26">
-      <c r="D65">
+    </row>
+    <row r="65" spans="5:10">
+      <c r="E65">
         <v>47.1384</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>190</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>141.3571788973562</v>
       </c>
-      <c r="I65">
-        <v>112.4561775522277</v>
-      </c>
-      <c r="T65">
+      <c r="J65">
         <v>117.3396461547121</v>
       </c>
-      <c r="Z65">
-        <v>138.5</v>
-      </c>
-    </row>
-    <row r="66" spans="4:26">
-      <c r="D66">
+    </row>
+    <row r="66" spans="5:10">
+      <c r="E66">
         <v>49.1688</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>114</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>148.4528285052632</v>
       </c>
-      <c r="I66">
-        <v>117.3000208498797</v>
-      </c>
-      <c r="T66">
+      <c r="J66">
         <v>123.400784653191</v>
       </c>
-      <c r="Z66">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="4:26">
-      <c r="D67">
+    </row>
+    <row r="67" spans="5:10">
+      <c r="E67">
         <v>49.6008</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>128</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>149.9732726519155</v>
       </c>
-      <c r="I67">
-        <v>118.330625806827</v>
-      </c>
-      <c r="T67">
+      <c r="J67">
         <v>124.7011200531565</v>
       </c>
-      <c r="Z67">
-        <v>146.25</v>
-      </c>
-    </row>
-    <row r="68" spans="4:26">
-      <c r="D68">
+    </row>
+    <row r="68" spans="5:10">
+      <c r="E68">
         <v>50.292</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>132</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>152.4138153726531</v>
       </c>
-      <c r="I68">
-        <v>119.9795937379426</v>
-      </c>
-      <c r="T68">
+      <c r="J68">
         <v>126.7894887791952</v>
       </c>
-      <c r="Z68">
-        <v>148.25</v>
-      </c>
-    </row>
-    <row r="69" spans="4:26">
-      <c r="D69">
+    </row>
+    <row r="69" spans="5:10">
+      <c r="E69">
         <v>51.1848</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>206</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>155.5804498343644</v>
       </c>
-      <c r="I69">
-        <v>122.1095106489669</v>
-      </c>
-      <c r="T69">
+      <c r="J69">
         <v>129.501231831087</v>
       </c>
-      <c r="Z69">
-        <v>150.25</v>
-      </c>
-    </row>
-    <row r="70" spans="4:26">
-      <c r="D70">
+    </row>
+    <row r="70" spans="5:10">
+      <c r="E70">
         <v>51.4188</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>141</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>156.413074497666</v>
       </c>
-      <c r="I70">
-        <v>122.6677550006467</v>
-      </c>
-      <c r="T70">
+      <c r="J70">
         <v>130.2146309232666</v>
       </c>
-      <c r="Z70">
-        <v>152.5</v>
-      </c>
-    </row>
-    <row r="71" spans="4:26">
-      <c r="D71">
+    </row>
+    <row r="71" spans="5:10">
+      <c r="E71">
         <v>51.768</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>76</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>157.6576611980811</v>
       </c>
-      <c r="I71">
-        <v>123.5008273408457</v>
-      </c>
-      <c r="T71">
+      <c r="J71">
         <v>131.2812963867765</v>
       </c>
-      <c r="Z71">
-        <v>154.25</v>
-      </c>
-    </row>
-    <row r="72" spans="4:26">
-      <c r="D72">
+    </row>
+    <row r="72" spans="5:10">
+      <c r="E72">
         <v>52.0596</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>190</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>158.6988403132758</v>
       </c>
-      <c r="I72">
-        <v>124.1964856867851</v>
-      </c>
-      <c r="T72">
+      <c r="J72">
         <v>132.1739020979576</v>
       </c>
-      <c r="Z72">
-        <v>156.25</v>
-      </c>
-    </row>
-    <row r="73" spans="4:26">
-      <c r="D73">
+    </row>
+    <row r="73" spans="5:10">
+      <c r="E73">
         <v>52.37280000000001</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>91</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>159.8190547610723</v>
       </c>
-      <c r="I73">
-        <v>124.9436742805719</v>
-      </c>
-      <c r="T73">
+      <c r="J73">
         <v>133.1345377044061</v>
       </c>
-      <c r="Z73">
-        <v>158.25</v>
-      </c>
-    </row>
-    <row r="74" spans="4:26">
-      <c r="D74">
+    </row>
+    <row r="74" spans="5:10">
+      <c r="E74">
         <v>53.2116</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>138</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>162.8289175862155</v>
       </c>
-      <c r="I74">
-        <v>126.9447655719778</v>
-      </c>
-      <c r="T74">
+      <c r="J74">
         <v>135.7170227130658</v>
       </c>
-      <c r="Z74">
-        <v>160.75</v>
-      </c>
-    </row>
-    <row r="75" spans="4:26">
-      <c r="D75">
+    </row>
+    <row r="75" spans="5:10">
+      <c r="E75">
         <v>53.7408</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>113</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>164.7351472754837</v>
       </c>
-      <c r="I75">
-        <v>128.2072566442382</v>
-      </c>
-      <c r="T75">
+      <c r="J75">
         <v>137.3536191876426</v>
       </c>
-      <c r="Z75">
-        <v>162.75</v>
-      </c>
-    </row>
-    <row r="76" spans="4:26">
-      <c r="D76">
+    </row>
+    <row r="76" spans="5:10">
+      <c r="E76">
         <v>54.144</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>143</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>166.1913053737714</v>
       </c>
-      <c r="I76">
-        <v>129.1691546040556</v>
-      </c>
-      <c r="T76">
+      <c r="J76">
         <v>138.6043424556893</v>
       </c>
-      <c r="Z76">
-        <v>164.75</v>
-      </c>
-    </row>
-    <row r="77" spans="4:26">
-      <c r="D77">
+    </row>
+    <row r="77" spans="5:10">
+      <c r="E77">
         <v>54.5904</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>104</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>167.8073065023648</v>
       </c>
-      <c r="I77">
-        <v>130.2341130595678</v>
-      </c>
-      <c r="T77">
+      <c r="J77">
         <v>139.992897879373</v>
       </c>
-      <c r="Z77">
-        <v>166.75</v>
-      </c>
-    </row>
-    <row r="78" spans="4:26">
-      <c r="D78">
+    </row>
+    <row r="78" spans="5:10">
+      <c r="E78">
         <v>55.6776</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>145</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>171.7598716582769</v>
       </c>
-      <c r="I78">
-        <v>132.8278022012183</v>
-      </c>
-      <c r="T78">
+      <c r="J78">
         <v>143.3915226894566</v>
       </c>
-      <c r="Z78">
-        <v>168.75</v>
-      </c>
-    </row>
-    <row r="79" spans="4:26">
-      <c r="D79">
+    </row>
+    <row r="79" spans="5:10">
+      <c r="E79">
         <v>56.49120000000001</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>207</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>174.7333529582523</v>
       </c>
-      <c r="I79">
-        <v>134.7687748701357</v>
-      </c>
-      <c r="T79">
+      <c r="J79">
         <v>145.9504658498385</v>
       </c>
-      <c r="Z79">
-        <v>170.75</v>
-      </c>
-    </row>
-    <row r="80" spans="4:26">
-      <c r="D80">
+    </row>
+    <row r="80" spans="5:10">
+      <c r="E80">
         <v>57.2148</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>238</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>177.3891306973958</v>
       </c>
-      <c r="I80">
-        <v>136.4950381730223</v>
-      </c>
-      <c r="T80">
+      <c r="J80">
         <v>148.2375614382815</v>
       </c>
-      <c r="Z80">
-        <v>172.75</v>
-      </c>
-    </row>
-    <row r="81" spans="4:26">
-      <c r="D81">
+    </row>
+    <row r="81" spans="5:10">
+      <c r="E81">
         <v>57.852</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>274</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>179.7365482020825</v>
       </c>
-      <c r="I81">
-        <v>138.0151804845195</v>
-      </c>
-      <c r="T81">
+      <c r="J81">
         <v>150.2603185416051</v>
       </c>
-      <c r="Z81">
-        <v>175.25</v>
-      </c>
-    </row>
-    <row r="82" spans="4:26">
-      <c r="D82">
+    </row>
+    <row r="82" spans="5:10">
+      <c r="E82">
         <v>58.6224</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>153</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>182.5856086709581</v>
       </c>
-      <c r="I82">
-        <v>139.8530926577421</v>
-      </c>
-      <c r="T82">
+      <c r="J82">
         <v>152.7168517455559</v>
       </c>
-      <c r="Z82">
-        <v>177.75</v>
-      </c>
-    </row>
-    <row r="83" spans="4:26">
-      <c r="D83">
+    </row>
+    <row r="83" spans="5:10">
+      <c r="E83">
         <v>59.2668</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>225</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>184.9778987513923</v>
       </c>
-      <c r="I83">
-        <v>141.3904117185218</v>
-      </c>
-      <c r="T83">
+      <c r="J83">
         <v>154.7808129455155</v>
       </c>
-      <c r="Z83">
-        <v>179.75</v>
-      </c>
-    </row>
-    <row r="84" spans="4:26">
-      <c r="D84">
+    </row>
+    <row r="84" spans="5:10">
+      <c r="E84">
         <v>59.634</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>216</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>186.3448505381085</v>
       </c>
-      <c r="I84">
-        <v>142.2664259319269</v>
-      </c>
-      <c r="T84">
+      <c r="J84">
         <v>155.960672297548</v>
       </c>
-      <c r="Z84">
-        <v>181.75</v>
-      </c>
-    </row>
-    <row r="85" spans="4:26">
-      <c r="D85">
+    </row>
+    <row r="85" spans="5:10">
+      <c r="E85">
         <v>59.89680000000001</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>164</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>187.3248294238487</v>
       </c>
-      <c r="I85">
-        <v>142.8933772807365</v>
-      </c>
-      <c r="T85">
+      <c r="J85">
         <v>156.8067516957203</v>
       </c>
-      <c r="Z85">
-        <v>183.75</v>
-      </c>
-    </row>
-    <row r="86" spans="4:26">
-      <c r="D86">
+    </row>
+    <row r="86" spans="5:10">
+      <c r="E86">
         <v>60.624</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>82</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>190.0438146469046</v>
       </c>
-      <c r="I86">
-        <v>144.6282289582644</v>
-      </c>
-      <c r="T86">
+      <c r="J86">
         <v>159.1552205285201</v>
       </c>
-      <c r="Z86">
-        <v>185.75</v>
-      </c>
-    </row>
-    <row r="87" spans="4:26">
-      <c r="D87">
+    </row>
+    <row r="87" spans="5:10">
+      <c r="E87">
         <v>61.0668</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>320</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>191.7046608516773</v>
       </c>
-      <c r="I87">
-        <v>145.6845990391353</v>
-      </c>
-      <c r="T87">
+      <c r="J87">
         <v>160.5904552679388</v>
-      </c>
-      <c r="Z87">
-        <v>187.75</v>
       </c>
     </row>
   </sheetData>
